--- a/Large Instances/Large1.xlsx
+++ b/Large Instances/Large1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacobni\SamkjøringKode\samkjoring2022\Large Instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB94C14E-7842-4672-9EE6-405AF9E2D617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5373AE8-0A33-4D72-AEC5-8FE751701E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="92">
   <si>
     <t>Rider</t>
   </si>
@@ -1112,8 +1112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F9237F8-759A-1046-9CA0-16FCEE066690}">
   <dimension ref="A1:AB932"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1176,51 +1176,51 @@
         <v>14</v>
       </c>
       <c r="B2" s="3" t="str">
-        <f t="shared" ref="B2:B42" ca="1" si="0">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Spjeld</v>
+        <f ca="1">INDEX($W$3:$W$126,RANDBETWEEN(1,ROWS($W$3:$W$26)),1)</f>
+        <v>Skogsvåg</v>
       </c>
       <c r="C2" s="3">
-        <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0396080000000003</v>
+        <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$26,$X$3:$X$26,0)</f>
+        <v>5.0971859999999998</v>
       </c>
       <c r="D2" s="4">
-        <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.390343000000001</v>
+        <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$26,$Y$3:$Y$26,0)</f>
+        <v>60.25994</v>
       </c>
       <c r="E2" s="5">
-        <f t="shared" ref="E2:F17" ca="1" si="1">C2*111.021</f>
-        <v>559.50231976800001</v>
+        <f t="shared" ref="E2:F17" ca="1" si="0">C2*111.021</f>
+        <v>565.89468690599995</v>
       </c>
       <c r="F2" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>6704.5962702030001</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6690.1187987399999</v>
       </c>
       <c r="G2" s="3" t="str">
-        <f t="shared" ref="G2:G42" ca="1" si="2">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <f t="shared" ref="G2:G42" ca="1" si="1">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
+        <v>Bergenhus</v>
       </c>
       <c r="H2" s="6">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I2" s="63">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J2" s="8">
-        <f t="shared" ref="J2:K17" ca="1" si="3">H2*111.021</f>
-        <v>584.50258365299999</v>
+        <f t="shared" ref="J2:K17" ca="1" si="2">H2*111.021</f>
+        <v>591.31594242300002</v>
       </c>
       <c r="K2" s="8">
-        <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="3" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">_xlfn.XLOOKUP(B2,$R$20:$R$47,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="N2" s="2">
         <v>4</v>
@@ -1250,51 +1250,51 @@
         <v>14</v>
       </c>
       <c r="B3" s="3" t="str">
+        <f t="shared" ref="B3:B42" ca="1" si="3">INDEX($W$3:$W$126,RANDBETWEEN(1,ROWS($W$3:$W$26)),1)</f>
+        <v>Knarrevik</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" ref="C3:C42" ca="1" si="4">_xlfn.XLOOKUP(B3,$W$3:$W$26,$X$3:$X$26,0)</f>
+        <v>5.1530250000000004</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D42" ca="1" si="5">_xlfn.XLOOKUP(B3,$W$3:$W$26,$Y$3:$Y$26,0)</f>
+        <v>60.368082999999999</v>
+      </c>
+      <c r="E3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>Kolltveit</v>
-      </c>
-      <c r="C3" s="3">
-        <f ca="1">_xlfn.XLOOKUP(B3,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0878129999999997</v>
-      </c>
-      <c r="D3" s="4">
-        <f t="shared" ref="D3" ca="1" si="4">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
-      </c>
-      <c r="E3" s="5">
+        <v>572.0939885250001</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>6702.1249427430002</v>
+      </c>
+      <c r="G3" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>564.85408707299996</v>
-      </c>
-      <c r="F3" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>6700.3641496830005</v>
-      </c>
-      <c r="G3" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H3" s="6">
-        <f t="shared" ref="H3" ca="1" si="5">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <f t="shared" ref="H3" ca="1" si="6">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I3" s="63">
         <f ca="1">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J3" s="8">
-        <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>583.82346819600002</v>
       </c>
       <c r="K3" s="8">
-        <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="3" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N3" s="2">
         <v>4</v>
@@ -1326,27 +1326,27 @@
         <v>14</v>
       </c>
       <c r="B4" s="3" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Knarrevik</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.1530250000000004</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>60.368082999999999</v>
+      </c>
+      <c r="E4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>Knarrevik</v>
-      </c>
-      <c r="C4" s="3">
-        <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1530250000000004</v>
-      </c>
-      <c r="D4" s="4">
-        <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.368082999999999</v>
-      </c>
-      <c r="E4" s="5">
+        <v>572.0939885250001</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>6702.1249427430002</v>
+      </c>
+      <c r="G4" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>572.0939885250001</v>
-      </c>
-      <c r="F4" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>6702.1249427430002</v>
-      </c>
-      <c r="G4" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
         <v>Bergenhus</v>
       </c>
       <c r="H4" s="6">
@@ -1358,11 +1358,11 @@
         <v>60.395409000000001</v>
       </c>
       <c r="J4" s="8">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>591.31594242300002</v>
       </c>
       <c r="K4" s="8">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>6705.1587025890003</v>
       </c>
       <c r="L4" s="2" t="s">
@@ -1399,43 +1399,43 @@
         <v>14</v>
       </c>
       <c r="B5" s="3" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Hjelteryggen</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.1544819999999998</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>60.381360999999998</v>
+      </c>
+      <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>Foldnes</v>
-      </c>
-      <c r="C5" s="3">
-        <f t="shared" ref="C5:C6" ca="1" si="6">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1065680000000002</v>
-      </c>
-      <c r="D5" s="4">
-        <f t="shared" ref="D5:D6" ca="1" si="7">_xlfn.XLOOKUP(B5,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
-      </c>
-      <c r="E5" s="5">
+        <v>572.25574612200001</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>6703.5990795810003</v>
+      </c>
+      <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>566.93628592800007</v>
-      </c>
-      <c r="F5" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>6703.0025637480003</v>
-      </c>
-      <c r="G5" s="3" t="str">
+        <v>Laksevåg</v>
+      </c>
+      <c r="H5" s="6">
+        <f t="shared" ref="H5:H6" ca="1" si="7">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
+        <v>5.2647930000000001</v>
+      </c>
+      <c r="I5" s="63">
+        <f t="shared" ref="I5:I6" ca="1" si="8">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
+        <v>60.379098999999997</v>
+      </c>
+      <c r="J5" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>Laksevåg</v>
-      </c>
-      <c r="H5" s="6">
-        <f t="shared" ref="H5:H6" ca="1" si="8">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
-      </c>
-      <c r="I5" s="63">
-        <f t="shared" ref="I5:I6" ca="1" si="9">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
-      </c>
-      <c r="J5" s="8">
-        <f t="shared" ca="1" si="3"/>
         <v>584.50258365299999</v>
       </c>
       <c r="K5" s="8">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>6703.3479500789999</v>
       </c>
       <c r="L5" s="2" t="s">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="N5" s="2">
         <v>4</v>
@@ -1472,43 +1472,43 @@
         <v>14</v>
       </c>
       <c r="B6" s="3" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Bildøyna</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.1060850000000002</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>60.354084999999998</v>
+      </c>
+      <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>Spjeld</v>
-      </c>
-      <c r="C6" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.0396080000000003</v>
-      </c>
-      <c r="D6" s="4">
+        <v>566.88266278499998</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>6700.5708707849999</v>
+      </c>
+      <c r="G6" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Laksevåg</v>
+      </c>
+      <c r="H6" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.390343000000001</v>
-      </c>
-      <c r="E6" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>559.50231976800001</v>
-      </c>
-      <c r="F6" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>6704.5962702030001</v>
-      </c>
-      <c r="G6" s="3" t="str">
+        <v>5.2647930000000001</v>
+      </c>
+      <c r="I6" s="63">
+        <f t="shared" ca="1" si="8"/>
+        <v>60.379098999999997</v>
+      </c>
+      <c r="J6" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>Laksevåg</v>
-      </c>
-      <c r="H6" s="6">
-        <f t="shared" ca="1" si="8"/>
-        <v>5.2647930000000001</v>
-      </c>
-      <c r="I6" s="63">
-        <f t="shared" ca="1" si="9"/>
-        <v>60.379098999999997</v>
-      </c>
-      <c r="J6" s="8">
-        <f t="shared" ca="1" si="3"/>
         <v>584.50258365299999</v>
       </c>
       <c r="K6" s="8">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>6703.3479500789999</v>
       </c>
       <c r="L6" s="2" t="s">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="N6" s="2">
         <v>4</v>
@@ -1545,51 +1545,51 @@
         <v>14</v>
       </c>
       <c r="B7" s="3" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Foldnes</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.1065680000000002</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>60.375988</v>
+      </c>
+      <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>Kårtveit</v>
-      </c>
-      <c r="C7" s="3">
-        <f ca="1">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9934529999999997</v>
-      </c>
-      <c r="D7" s="4">
-        <f ca="1">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
-      </c>
-      <c r="E7" s="5">
+        <v>566.93628592800007</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>6703.0025637480003</v>
+      </c>
+      <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>554.37814551299994</v>
-      </c>
-      <c r="F7" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>6704.4084226710002</v>
-      </c>
-      <c r="G7" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H7" s="6">
         <f ca="1">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I7" s="63">
         <f ca="1">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J7" s="8">
-        <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>583.82346819600002</v>
       </c>
       <c r="K7" s="8">
-        <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="N7" s="2">
         <v>4</v>
@@ -1609,51 +1609,51 @@
         <v>14</v>
       </c>
       <c r="B8" s="3" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Bildøyna</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.1060850000000002</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>60.354084999999998</v>
+      </c>
+      <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>Telavåg</v>
-      </c>
-      <c r="C8" s="3">
-        <f t="shared" ref="C8:C42" ca="1" si="10">_xlfn.XLOOKUP(B8,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9820219999999997</v>
-      </c>
-      <c r="D8" s="4">
-        <f t="shared" ref="D8:D31" ca="1" si="11">_xlfn.XLOOKUP(B8,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.261564</v>
-      </c>
-      <c r="E8" s="5">
+        <v>566.88266278499998</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>6700.5708707849999</v>
+      </c>
+      <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>553.10906446199999</v>
-      </c>
-      <c r="F8" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>6690.2990968439999</v>
-      </c>
-      <c r="G8" s="3" t="str">
+        <v>Bergenhus</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" ref="H8:H42" ca="1" si="9">_xlfn.XLOOKUP(G8,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
+        <v>5.3261630000000002</v>
+      </c>
+      <c r="I8" s="63">
+        <f t="shared" ref="I8:I31" ca="1" si="10">_xlfn.XLOOKUP(G8,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
+        <v>60.395409000000001</v>
+      </c>
+      <c r="J8" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>Laksevåg</v>
-      </c>
-      <c r="H8" s="6">
-        <f t="shared" ref="H8:H42" ca="1" si="12">_xlfn.XLOOKUP(G8,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
-      </c>
-      <c r="I8" s="63">
-        <f t="shared" ref="I8:I31" ca="1" si="13">_xlfn.XLOOKUP(G8,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
-      </c>
-      <c r="J8" s="8">
-        <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K8" s="8">
-        <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="N8" s="2">
         <v>4</v>
@@ -1673,51 +1673,51 @@
         <v>14</v>
       </c>
       <c r="B9" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Foldnes</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>Bildøyna</v>
       </c>
       <c r="C9" s="3">
-        <f ca="1">_xlfn.XLOOKUP(B9,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1065680000000002</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D9" s="4">
-        <f ca="1">_xlfn.XLOOKUP(B9,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>60.354084999999998</v>
       </c>
       <c r="E9" s="5">
-        <f t="shared" ref="E9:E11" ca="1" si="14">C9*111.021</f>
-        <v>566.93628592800007</v>
+        <f t="shared" ref="E9:E11" ca="1" si="11">C9*111.021</f>
+        <v>566.88266278499998</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" ref="F9:F11" ca="1" si="15">D9*111.021</f>
-        <v>6703.0025637480003</v>
+        <f t="shared" ref="F9:F11" ca="1" si="12">D9*111.021</f>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G9" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Laksevåg</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>Ytrebygda</v>
       </c>
       <c r="H9" s="6">
         <f ca="1">_xlfn.XLOOKUP(G9,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I9" s="63">
         <f ca="1">_xlfn.XLOOKUP(G9,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J9" s="8">
-        <f t="shared" ref="J9:J11" ca="1" si="16">H9*111.021</f>
-        <v>584.50258365299999</v>
+        <f t="shared" ref="J9:J11" ca="1" si="13">H9*111.021</f>
+        <v>583.82346819600002</v>
       </c>
       <c r="K9" s="8">
-        <f t="shared" ref="K9:K11" ca="1" si="17">I9*111.021</f>
-        <v>6703.3479500789999</v>
+        <f t="shared" ref="K9:K11" ca="1" si="14">I9*111.021</f>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>88</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N9" s="2">
         <v>4</v>
@@ -1737,43 +1737,43 @@
         <v>14</v>
       </c>
       <c r="B10" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Brattholmen</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>Blomøy</v>
       </c>
       <c r="C10" s="3">
-        <f t="shared" ref="C10:C11" ca="1" si="18">_xlfn.XLOOKUP(B10,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1522740000000002</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4.8927480000000001</v>
       </c>
       <c r="D10" s="4">
-        <f t="shared" ref="D10:D11" ca="1" si="19">_xlfn.XLOOKUP(B10,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>60.538108000000001</v>
       </c>
       <c r="E10" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>543.19777570799999</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" ca="1" si="12"/>
+        <v>6721.0012882680003</v>
+      </c>
+      <c r="G10" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ytrebygda</v>
+      </c>
+      <c r="H10" s="6">
+        <f t="shared" ref="H10:H11" ca="1" si="15">_xlfn.XLOOKUP(G10,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
+        <v>5.2586760000000004</v>
+      </c>
+      <c r="I10" s="63">
+        <f t="shared" ref="I10:I11" ca="1" si="16">_xlfn.XLOOKUP(G10,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
+        <v>60.290962</v>
+      </c>
+      <c r="J10" s="8">
+        <f t="shared" ca="1" si="13"/>
+        <v>583.82346819600002</v>
+      </c>
+      <c r="K10" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>572.01061175400002</v>
-      </c>
-      <c r="F10" s="5">
-        <f t="shared" ca="1" si="15"/>
-        <v>6700.629822936</v>
-      </c>
-      <c r="G10" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Ytrebygda</v>
-      </c>
-      <c r="H10" s="6">
-        <f t="shared" ref="H10:H11" ca="1" si="20">_xlfn.XLOOKUP(G10,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2586760000000004</v>
-      </c>
-      <c r="I10" s="63">
-        <f t="shared" ref="I10:I11" ca="1" si="21">_xlfn.XLOOKUP(G10,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
-      </c>
-      <c r="J10" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>583.82346819600002</v>
-      </c>
-      <c r="K10" s="8">
-        <f t="shared" ca="1" si="17"/>
         <v>6693.5628922020005</v>
       </c>
       <c r="L10" s="2" t="s">
@@ -1781,7 +1781,7 @@
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="N10" s="2">
         <v>4</v>
@@ -1801,51 +1801,51 @@
         <v>14</v>
       </c>
       <c r="B11" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Kolltveit</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>Vågo</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" ca="1" si="18"/>
-        <v>5.0878129999999997</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5.1245659999999997</v>
       </c>
       <c r="D11" s="4">
-        <f t="shared" ca="1" si="19"/>
-        <v>60.352223000000002</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>60.388821</v>
       </c>
       <c r="E11" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>568.93444188599995</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" ca="1" si="12"/>
+        <v>6704.4272962410005</v>
+      </c>
+      <c r="G11" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Bergenhus</v>
+      </c>
+      <c r="H11" s="6">
+        <f t="shared" ca="1" si="15"/>
+        <v>5.3261630000000002</v>
+      </c>
+      <c r="I11" s="63">
+        <f t="shared" ca="1" si="16"/>
+        <v>60.395409000000001</v>
+      </c>
+      <c r="J11" s="8">
+        <f t="shared" ca="1" si="13"/>
+        <v>591.31594242300002</v>
+      </c>
+      <c r="K11" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>564.85408707299996</v>
-      </c>
-      <c r="F11" s="5">
-        <f t="shared" ca="1" si="15"/>
-        <v>6700.3641496830005</v>
-      </c>
-      <c r="G11" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Laksevåg</v>
-      </c>
-      <c r="H11" s="6">
-        <f t="shared" ca="1" si="20"/>
-        <v>5.2647930000000001</v>
-      </c>
-      <c r="I11" s="63">
-        <f t="shared" ca="1" si="21"/>
-        <v>60.379098999999997</v>
-      </c>
-      <c r="J11" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>584.50258365299999</v>
-      </c>
-      <c r="K11" s="8">
-        <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>90</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="N11" s="2">
         <v>4</v>
@@ -1866,51 +1866,51 @@
         <v>26</v>
       </c>
       <c r="B12" s="3" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Kårtveit</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.9934529999999997</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>60.388651000000003</v>
+      </c>
+      <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>Brattholmen</v>
-      </c>
-      <c r="C12" s="3">
+        <v>554.37814551299994</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>6704.4084226710002</v>
+      </c>
+      <c r="G12" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Laksevåg</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>5.2647930000000001</v>
+      </c>
+      <c r="I12" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1522740000000002</v>
-      </c>
-      <c r="D12" s="4">
-        <f t="shared" ca="1" si="11"/>
-        <v>60.354616</v>
-      </c>
-      <c r="E12" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>572.01061175400002</v>
-      </c>
-      <c r="F12" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>6700.629822936</v>
-      </c>
-      <c r="G12" s="3" t="str">
+        <v>60.379098999999997</v>
+      </c>
+      <c r="J12" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>Ytrebygda</v>
-      </c>
-      <c r="H12" s="6">
-        <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
-      </c>
-      <c r="I12" s="63">
-        <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
-      </c>
-      <c r="J12" s="8">
-        <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K12" s="8">
-        <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -1930,51 +1930,60 @@
         <v>26</v>
       </c>
       <c r="B13" s="3" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Knarrevik</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.1530250000000004</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>60.368082999999999</v>
+      </c>
+      <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>Knappskog</v>
-      </c>
-      <c r="C13" s="3">
+        <v>572.0939885250001</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>6702.1249427430002</v>
+      </c>
+      <c r="G13" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Årstad</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>5.3523550000000002</v>
+      </c>
+      <c r="I13" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0559289999999999</v>
-      </c>
-      <c r="D13" s="4">
-        <f t="shared" ca="1" si="11"/>
-        <v>60.382877999999998</v>
-      </c>
-      <c r="E13" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>561.31429350899998</v>
-      </c>
-      <c r="F13" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>6703.7674984380001</v>
-      </c>
-      <c r="G13" s="3" t="str">
+        <v>60.363500999999999</v>
+      </c>
+      <c r="J13" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>Bergenhus</v>
-      </c>
-      <c r="H13" s="6">
-        <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
-      </c>
-      <c r="I13" s="63">
-        <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
-      </c>
-      <c r="J13" s="8">
-        <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K13" s="8">
-        <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>38</v>
+      </c>
+      <c r="W13" t="s">
+        <v>42</v>
+      </c>
+      <c r="X13">
+        <v>4.8927480000000001</v>
+      </c>
+      <c r="Y13">
+        <v>60.538108000000001</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1982,51 +1991,60 @@
         <v>26</v>
       </c>
       <c r="B14" s="3" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Knarrevik</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.1530250000000004</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>60.368082999999999</v>
+      </c>
+      <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>Brattholmen</v>
-      </c>
-      <c r="C14" s="3">
+        <v>572.0939885250001</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>6702.1249427430002</v>
+      </c>
+      <c r="G14" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ytrebygda</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>5.2586760000000004</v>
+      </c>
+      <c r="I14" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1522740000000002</v>
-      </c>
-      <c r="D14" s="4">
-        <f t="shared" ca="1" si="11"/>
-        <v>60.354616</v>
-      </c>
-      <c r="E14" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>572.01061175400002</v>
-      </c>
-      <c r="F14" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>6700.629822936</v>
-      </c>
-      <c r="G14" s="3" t="str">
+        <v>60.290962</v>
+      </c>
+      <c r="J14" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>Laksevåg</v>
-      </c>
-      <c r="H14" s="6">
-        <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
-      </c>
-      <c r="I14" s="63">
-        <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
-      </c>
-      <c r="J14" s="8">
-        <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K14" s="8">
-        <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="W14" t="s">
+        <v>44</v>
+      </c>
+      <c r="X14">
+        <v>4.7908670000000004</v>
+      </c>
+      <c r="Y14">
+        <v>60.661020999999998</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -2034,44 +2052,44 @@
         <v>26</v>
       </c>
       <c r="B15" s="3" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Spjeld</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.0396080000000003</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>60.390343000000001</v>
+      </c>
+      <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>Foldnes</v>
-      </c>
-      <c r="C15" s="3">
+        <v>559.50231976800001</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>6704.5962702030001</v>
+      </c>
+      <c r="G15" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Bergenhus</v>
+      </c>
+      <c r="H15" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>5.3261630000000002</v>
+      </c>
+      <c r="I15" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1065680000000002</v>
-      </c>
-      <c r="D15" s="4">
-        <f t="shared" ca="1" si="11"/>
-        <v>60.375988</v>
-      </c>
-      <c r="E15" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>566.93628592800007</v>
-      </c>
-      <c r="F15" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>6703.0025637480003</v>
-      </c>
-      <c r="G15" s="3" t="str">
+        <v>60.395409000000001</v>
+      </c>
+      <c r="J15" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>Årstad</v>
-      </c>
-      <c r="H15" s="6">
-        <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
-      </c>
-      <c r="I15" s="63">
-        <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
-      </c>
-      <c r="J15" s="8">
-        <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K15" s="8">
-        <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
@@ -2080,57 +2098,75 @@
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
         <v>56</v>
       </c>
+      <c r="W15" t="s">
+        <v>46</v>
+      </c>
+      <c r="X15">
+        <v>5.1245659999999997</v>
+      </c>
+      <c r="Y15">
+        <v>60.388821</v>
+      </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="3" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Rongøy</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.9155160000000002</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>60.507615999999999</v>
+      </c>
+      <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>Knappskog</v>
-      </c>
-      <c r="C16" s="3">
+        <v>545.72550183600003</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>6717.6160359360001</v>
+      </c>
+      <c r="G16" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Årstad</v>
+      </c>
+      <c r="H16" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>5.3523550000000002</v>
+      </c>
+      <c r="I16" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0559289999999999</v>
-      </c>
-      <c r="D16" s="4">
-        <f t="shared" ca="1" si="11"/>
-        <v>60.382877999999998</v>
-      </c>
-      <c r="E16" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>561.31429350899998</v>
-      </c>
-      <c r="F16" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>6703.7674984380001</v>
-      </c>
-      <c r="G16" s="3" t="str">
+        <v>60.363500999999999</v>
+      </c>
+      <c r="J16" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>Laksevåg</v>
-      </c>
-      <c r="H16" s="6">
-        <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
-      </c>
-      <c r="I16" s="63">
-        <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
-      </c>
-      <c r="J16" s="8">
-        <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K16" s="8">
-        <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>90</v>
+      </c>
+      <c r="W16" t="s">
+        <v>47</v>
+      </c>
+      <c r="X16">
+        <v>5.1424630000000002</v>
+      </c>
+      <c r="Y16">
+        <v>60.358854999999998</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -2138,43 +2174,43 @@
         <v>26</v>
       </c>
       <c r="B17" s="3" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Kolltveit</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.0878129999999997</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>60.352223000000002</v>
+      </c>
+      <c r="E17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>Kolltveit</v>
-      </c>
-      <c r="C17" s="3">
+        <v>564.85408707299996</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>6700.3641496830005</v>
+      </c>
+      <c r="G17" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Bergenhus</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>5.3261630000000002</v>
+      </c>
+      <c r="I17" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0878129999999997</v>
-      </c>
-      <c r="D17" s="4">
-        <f t="shared" ca="1" si="11"/>
-        <v>60.352223000000002</v>
-      </c>
-      <c r="E17" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>564.85408707299996</v>
-      </c>
-      <c r="F17" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>6700.3641496830005</v>
-      </c>
-      <c r="G17" s="3" t="str">
+        <v>60.395409000000001</v>
+      </c>
+      <c r="J17" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>Bergenhus</v>
-      </c>
-      <c r="H17" s="6">
-        <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
-      </c>
-      <c r="I17" s="63">
-        <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
-      </c>
-      <c r="J17" s="8">
-        <f t="shared" ca="1" si="3"/>
         <v>591.31594242300002</v>
       </c>
       <c r="K17" s="8">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>6705.1587025890003</v>
       </c>
       <c r="L17" s="2" t="s">
@@ -2184,57 +2220,75 @@
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
         <v>52</v>
       </c>
+      <c r="W17" t="s">
+        <v>48</v>
+      </c>
+      <c r="X17">
+        <v>5.1401279999999998</v>
+      </c>
+      <c r="Y17">
+        <v>60.336067999999997</v>
+      </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Spjeld</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>Knarrevik</v>
       </c>
       <c r="C18" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.1530250000000004</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>60.368082999999999</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" ref="E18:F33" ca="1" si="17">C18*111.021</f>
+        <v>572.0939885250001</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>6702.1249427430002</v>
+      </c>
+      <c r="G18" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Bergenhus</v>
+      </c>
+      <c r="H18" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>5.3261630000000002</v>
+      </c>
+      <c r="I18" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0396080000000003</v>
-      </c>
-      <c r="D18" s="4">
-        <f t="shared" ca="1" si="11"/>
-        <v>60.390343000000001</v>
-      </c>
-      <c r="E18" s="5">
-        <f t="shared" ref="E18:F33" ca="1" si="22">C18*111.021</f>
-        <v>559.50231976800001</v>
-      </c>
-      <c r="F18" s="5">
-        <f t="shared" ca="1" si="22"/>
-        <v>6704.5962702030001</v>
-      </c>
-      <c r="G18" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Årstad</v>
-      </c>
-      <c r="H18" s="6">
-        <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
-      </c>
-      <c r="I18" s="63">
-        <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J18" s="8">
-        <f t="shared" ref="J18:K33" ca="1" si="23">H18*111.021</f>
-        <v>594.22380445500005</v>
+        <f t="shared" ref="J18:K33" ca="1" si="18">H18*111.021</f>
+        <v>591.31594242300002</v>
       </c>
       <c r="K18" s="8">
-        <f t="shared" ca="1" si="23"/>
-        <v>6701.6162445210002</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>36</v>
+      </c>
+      <c r="W18" t="s">
+        <v>49</v>
+      </c>
+      <c r="X18">
+        <v>4.9672090000000004</v>
+      </c>
+      <c r="Y18">
+        <v>60.423364999999997</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -2242,51 +2296,51 @@
         <v>26</v>
       </c>
       <c r="B19" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Bildøyna</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>Knappskog</v>
       </c>
       <c r="C19" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.0559289999999999</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>60.382877999999998</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>561.31429350899998</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>6703.7674984380001</v>
+      </c>
+      <c r="G19" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ytrebygda</v>
+      </c>
+      <c r="H19" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>5.2586760000000004</v>
+      </c>
+      <c r="I19" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1060850000000002</v>
-      </c>
-      <c r="D19" s="4">
-        <f t="shared" ca="1" si="11"/>
-        <v>60.354084999999998</v>
-      </c>
-      <c r="E19" s="5">
-        <f t="shared" ca="1" si="22"/>
-        <v>566.88266278499998</v>
-      </c>
-      <c r="F19" s="5">
-        <f t="shared" ca="1" si="22"/>
-        <v>6700.5708707849999</v>
-      </c>
-      <c r="G19" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Bergenhus</v>
-      </c>
-      <c r="H19" s="6">
-        <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
-      </c>
-      <c r="I19" s="63">
-        <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J19" s="8">
-        <f t="shared" ca="1" si="23"/>
-        <v>591.31594242300002</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>583.82346819600002</v>
       </c>
       <c r="K19" s="8">
-        <f t="shared" ca="1" si="23"/>
-        <v>6705.1587025890003</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -2301,57 +2355,66 @@
       <c r="V19" s="13" t="s">
         <v>33</v>
       </c>
+      <c r="W19" t="s">
+        <v>51</v>
+      </c>
+      <c r="X19">
+        <v>5.1544819999999998</v>
+      </c>
+      <c r="Y19">
+        <v>60.381360999999998</v>
+      </c>
     </row>
     <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Knarrevik</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>Hjelteryggen</v>
       </c>
       <c r="C20" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.1544819999999998</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>60.381360999999998</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>572.25574612200001</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>6703.5990795810003</v>
+      </c>
+      <c r="G20" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Bergenhus</v>
+      </c>
+      <c r="H20" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>5.3261630000000002</v>
+      </c>
+      <c r="I20" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1530250000000004</v>
-      </c>
-      <c r="D20" s="4">
-        <f t="shared" ca="1" si="11"/>
-        <v>60.368082999999999</v>
-      </c>
-      <c r="E20" s="5">
-        <f t="shared" ca="1" si="22"/>
-        <v>572.0939885250001</v>
-      </c>
-      <c r="F20" s="5">
-        <f t="shared" ca="1" si="22"/>
-        <v>6702.1249427430002</v>
-      </c>
-      <c r="G20" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Ytrebygda</v>
-      </c>
-      <c r="H20" s="6">
-        <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
-      </c>
-      <c r="I20" s="63">
-        <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J20" s="8">
-        <f t="shared" ca="1" si="23"/>
-        <v>583.82346819600002</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>591.31594242300002</v>
       </c>
       <c r="K20" s="8">
-        <f t="shared" ca="1" si="23"/>
-        <v>6693.5628922020005</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -2367,6 +2430,15 @@
       </c>
       <c r="V20" s="18">
         <v>29</v>
+      </c>
+      <c r="W20" t="s">
+        <v>52</v>
+      </c>
+      <c r="X20">
+        <v>5.0971859999999998</v>
+      </c>
+      <c r="Y20">
+        <v>60.25994</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -2374,43 +2446,43 @@
         <v>26</v>
       </c>
       <c r="B21" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Knappskog</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>Bildøyna</v>
       </c>
       <c r="C21" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.1060850000000002</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>60.354084999999998</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>566.88266278499998</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>6700.5708707849999</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Laksevåg</v>
+      </c>
+      <c r="H21" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>5.2647930000000001</v>
+      </c>
+      <c r="I21" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0559289999999999</v>
-      </c>
-      <c r="D21" s="4">
-        <f t="shared" ca="1" si="11"/>
-        <v>60.382877999999998</v>
-      </c>
-      <c r="E21" s="5">
-        <f t="shared" ca="1" si="22"/>
-        <v>561.31429350899998</v>
-      </c>
-      <c r="F21" s="5">
-        <f t="shared" ca="1" si="22"/>
-        <v>6703.7674984380001</v>
-      </c>
-      <c r="G21" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Laksevåg</v>
-      </c>
-      <c r="H21" s="6">
-        <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
-      </c>
-      <c r="I21" s="63">
-        <f t="shared" ca="1" si="13"/>
         <v>60.379098999999997</v>
       </c>
       <c r="J21" s="8">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="18"/>
         <v>584.50258365299999</v>
       </c>
       <c r="K21" s="8">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="18"/>
         <v>6703.3479500789999</v>
       </c>
       <c r="L21" s="2" t="s">
@@ -2418,7 +2490,7 @@
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -2434,6 +2506,15 @@
       </c>
       <c r="V21" s="16">
         <v>27</v>
+      </c>
+      <c r="W21" t="s">
+        <v>53</v>
+      </c>
+      <c r="X21">
+        <v>5.1359649999999997</v>
+      </c>
+      <c r="Y21">
+        <v>60.187809999999999</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -2441,51 +2522,51 @@
         <v>26</v>
       </c>
       <c r="B22" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Telavåg</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>Kolltveit</v>
       </c>
       <c r="C22" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.0878129999999997</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>60.352223000000002</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>564.85408707299996</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>6700.3641496830005</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Årstad</v>
+      </c>
+      <c r="H22" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>5.3523550000000002</v>
+      </c>
+      <c r="I22" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9820219999999997</v>
-      </c>
-      <c r="D22" s="4">
-        <f t="shared" ca="1" si="11"/>
-        <v>60.261564</v>
-      </c>
-      <c r="E22" s="5">
-        <f t="shared" ca="1" si="22"/>
-        <v>553.10906446199999</v>
-      </c>
-      <c r="F22" s="5">
-        <f t="shared" ca="1" si="22"/>
-        <v>6690.2990968439999</v>
-      </c>
-      <c r="G22" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Ytrebygda</v>
-      </c>
-      <c r="H22" s="6">
-        <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
-      </c>
-      <c r="I22" s="63">
-        <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J22" s="8">
-        <f t="shared" ca="1" si="23"/>
-        <v>583.82346819600002</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>594.22380445500005</v>
       </c>
       <c r="K22" s="8">
-        <f t="shared" ca="1" si="23"/>
-        <v>6693.5628922020005</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -2502,55 +2583,59 @@
       <c r="V22" s="24">
         <v>28</v>
       </c>
-      <c r="Y22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z22" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="W22" t="s">
+        <v>54</v>
+      </c>
+      <c r="X22">
+        <v>4.9664089999999996</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>60.431001999999999</v>
+      </c>
+      <c r="Z22" s="2"/>
     </row>
     <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Knappskog</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>Skogsvåg</v>
       </c>
       <c r="C23" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.0971859999999998</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>60.25994</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>565.89468690599995</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>6690.1187987399999</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Årstad</v>
+      </c>
+      <c r="H23" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>5.3523550000000002</v>
+      </c>
+      <c r="I23" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0559289999999999</v>
-      </c>
-      <c r="D23" s="4">
-        <f t="shared" ca="1" si="11"/>
-        <v>60.382877999999998</v>
-      </c>
-      <c r="E23" s="5">
-        <f t="shared" ca="1" si="22"/>
-        <v>561.31429350899998</v>
-      </c>
-      <c r="F23" s="5">
-        <f t="shared" ca="1" si="22"/>
-        <v>6703.7674984380001</v>
-      </c>
-      <c r="G23" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Årstad</v>
-      </c>
-      <c r="H23" s="6">
-        <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
-      </c>
-      <c r="I23" s="63">
-        <f t="shared" ca="1" si="13"/>
         <v>60.363500999999999</v>
       </c>
       <c r="J23" s="8">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="18"/>
         <v>594.22380445500005</v>
       </c>
       <c r="K23" s="8">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="18"/>
         <v>6701.6162445210002</v>
       </c>
       <c r="L23" s="2" t="s">
@@ -2558,7 +2643,7 @@
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -2575,63 +2660,67 @@
       <c r="V23" s="28">
         <v>52</v>
       </c>
-      <c r="Y23" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z23" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="W23" t="s">
+        <v>55</v>
+      </c>
+      <c r="X23">
+        <v>4.9155160000000002</v>
+      </c>
+      <c r="Y23" s="2">
+        <v>60.507615999999999</v>
+      </c>
+      <c r="Z23" s="2"/>
     </row>
     <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Kolltveit</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>Kleppe</v>
       </c>
       <c r="C24" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.1359649999999997</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>60.187809999999999</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>570.19997026499993</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>6682.1108540100004</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Årstad</v>
+      </c>
+      <c r="H24" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>5.3523550000000002</v>
+      </c>
+      <c r="I24" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0878129999999997</v>
-      </c>
-      <c r="D24" s="4">
-        <f t="shared" ca="1" si="11"/>
-        <v>60.352223000000002</v>
-      </c>
-      <c r="E24" s="5">
-        <f t="shared" ca="1" si="22"/>
-        <v>564.85408707299996</v>
-      </c>
-      <c r="F24" s="5">
-        <f t="shared" ca="1" si="22"/>
-        <v>6700.3641496830005</v>
-      </c>
-      <c r="G24" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Laksevåg</v>
-      </c>
-      <c r="H24" s="6">
-        <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
-      </c>
-      <c r="I24" s="63">
-        <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J24" s="8">
-        <f t="shared" ca="1" si="23"/>
-        <v>584.50258365299999</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>594.22380445500005</v>
       </c>
       <c r="K24" s="8">
-        <f t="shared" ca="1" si="23"/>
-        <v>6703.3479500789999</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -2648,64 +2737,67 @@
       <c r="V24" s="32">
         <v>71</v>
       </c>
-      <c r="Y24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z24" s="3" t="e">
-        <f t="array" aca="1" ref="Z24" ca="1">_xludf.XLOOKUP(Z22,R20:R47,_xludf.XLOOKUP(Z23,S19:V19,S20:V47))</f>
-        <v>#NAME?</v>
-      </c>
+      <c r="W24" t="s">
+        <v>56</v>
+      </c>
+      <c r="X24">
+        <v>5.0687990000000003</v>
+      </c>
+      <c r="Y24" s="2">
+        <v>60.259569999999997</v>
+      </c>
+      <c r="Z24" s="3"/>
     </row>
     <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Kolltveit</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>Arefjord</v>
       </c>
       <c r="C25" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.1424630000000002</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>60.358854999999998</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>570.92138472300007</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>6701.1004409549996</v>
+      </c>
+      <c r="G25" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Laksevåg</v>
+      </c>
+      <c r="H25" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>5.2647930000000001</v>
+      </c>
+      <c r="I25" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0878129999999997</v>
-      </c>
-      <c r="D25" s="4">
-        <f t="shared" ca="1" si="11"/>
-        <v>60.352223000000002</v>
-      </c>
-      <c r="E25" s="5">
-        <f t="shared" ca="1" si="22"/>
-        <v>564.85408707299996</v>
-      </c>
-      <c r="F25" s="5">
-        <f t="shared" ca="1" si="22"/>
-        <v>6700.3641496830005</v>
-      </c>
-      <c r="G25" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Årstad</v>
-      </c>
-      <c r="H25" s="6">
-        <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
-      </c>
-      <c r="I25" s="63">
-        <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J25" s="8">
-        <f t="shared" ca="1" si="23"/>
-        <v>594.22380445500005</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>584.50258365299999</v>
       </c>
       <c r="K25" s="8">
-        <f t="shared" ca="1" si="23"/>
-        <v>6701.6162445210002</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -2714,16 +2806,25 @@
         <v>20</v>
       </c>
       <c r="T25" s="16">
-        <f t="shared" ref="T25:T47" si="24">S25+7</f>
+        <f t="shared" ref="T25:T47" si="19">S25+7</f>
         <v>27</v>
       </c>
       <c r="U25" s="23">
-        <f t="shared" ref="U25:U47" si="25">S25+4</f>
+        <f t="shared" ref="U25:U47" si="20">S25+4</f>
         <v>24</v>
       </c>
       <c r="V25" s="24">
-        <f t="shared" ref="V25:V47" si="26">S25+8</f>
+        <f t="shared" ref="V25:V47" si="21">S25+8</f>
         <v>28</v>
+      </c>
+      <c r="W25" t="s">
+        <v>58</v>
+      </c>
+      <c r="X25">
+        <v>5.0677450000000004</v>
+      </c>
+      <c r="Y25">
+        <v>60.227445000000003</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -2731,43 +2832,43 @@
         <v>26</v>
       </c>
       <c r="B26" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Bildøyna</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>Hjelteryggen</v>
       </c>
       <c r="C26" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.1544819999999998</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>60.381360999999998</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>572.25574612200001</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>6703.5990795810003</v>
+      </c>
+      <c r="G26" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Laksevåg</v>
+      </c>
+      <c r="H26" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>5.2647930000000001</v>
+      </c>
+      <c r="I26" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1060850000000002</v>
-      </c>
-      <c r="D26" s="4">
-        <f t="shared" ca="1" si="11"/>
-        <v>60.354084999999998</v>
-      </c>
-      <c r="E26" s="5">
-        <f t="shared" ca="1" si="22"/>
-        <v>566.88266278499998</v>
-      </c>
-      <c r="F26" s="5">
-        <f t="shared" ca="1" si="22"/>
-        <v>6700.5708707849999</v>
-      </c>
-      <c r="G26" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Laksevåg</v>
-      </c>
-      <c r="H26" s="6">
-        <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
-      </c>
-      <c r="I26" s="63">
-        <f t="shared" ca="1" si="13"/>
         <v>60.379098999999997</v>
       </c>
       <c r="J26" s="8">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="18"/>
         <v>584.50258365299999</v>
       </c>
       <c r="K26" s="8">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="18"/>
         <v>6703.3479500789999</v>
       </c>
       <c r="L26" s="2" t="s">
@@ -2775,7 +2876,7 @@
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -2784,16 +2885,25 @@
         <v>21</v>
       </c>
       <c r="T26" s="24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>28</v>
       </c>
       <c r="U26" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>25</v>
       </c>
       <c r="V26" s="18">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>29</v>
+      </c>
+      <c r="W26" t="s">
+        <v>59</v>
+      </c>
+      <c r="X26">
+        <v>5.0525099999999998</v>
+      </c>
+      <c r="Y26">
+        <v>60.185890000000001</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -2801,44 +2911,44 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Bildøyna</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>Hjelteryggen</v>
       </c>
       <c r="C27" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.1544819999999998</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>60.381360999999998</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>572.25574612200001</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>6703.5990795810003</v>
+      </c>
+      <c r="G27" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Årstad</v>
+      </c>
+      <c r="H27" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>5.3523550000000002</v>
+      </c>
+      <c r="I27" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1060850000000002</v>
-      </c>
-      <c r="D27" s="4">
-        <f t="shared" ca="1" si="11"/>
-        <v>60.354084999999998</v>
-      </c>
-      <c r="E27" s="5">
-        <f t="shared" ca="1" si="22"/>
-        <v>566.88266278499998</v>
-      </c>
-      <c r="F27" s="5">
-        <f t="shared" ca="1" si="22"/>
-        <v>6700.5708707849999</v>
-      </c>
-      <c r="G27" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Bergenhus</v>
-      </c>
-      <c r="H27" s="6">
-        <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
-      </c>
-      <c r="I27" s="63">
-        <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J27" s="8">
-        <f t="shared" ca="1" si="23"/>
-        <v>591.31594242300002</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>594.22380445500005</v>
       </c>
       <c r="K27" s="8">
-        <f t="shared" ca="1" si="23"/>
-        <v>6705.1587025890003</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>17</v>
@@ -2854,15 +2964,15 @@
         <v>17</v>
       </c>
       <c r="T27" s="23">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>24</v>
       </c>
       <c r="U27" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>21</v>
       </c>
       <c r="V27" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>25</v>
       </c>
     </row>
@@ -2871,43 +2981,43 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Straume</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>Bildøyna</v>
       </c>
       <c r="C28" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.1060850000000002</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>60.354084999999998</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>566.88266278499998</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>6700.5708707849999</v>
+      </c>
+      <c r="G28" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Laksevåg</v>
+      </c>
+      <c r="H28" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>5.2647930000000001</v>
+      </c>
+      <c r="I28" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1213329999999999</v>
-      </c>
-      <c r="D28" s="4">
-        <f t="shared" ca="1" si="11"/>
-        <v>60.356560999999999</v>
-      </c>
-      <c r="E28" s="5">
-        <f t="shared" ca="1" si="22"/>
-        <v>568.57551099299997</v>
-      </c>
-      <c r="F28" s="5">
-        <f t="shared" ca="1" si="22"/>
-        <v>6700.8457587809999</v>
-      </c>
-      <c r="G28" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Laksevåg</v>
-      </c>
-      <c r="H28" s="6">
-        <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
-      </c>
-      <c r="I28" s="63">
-        <f t="shared" ca="1" si="13"/>
         <v>60.379098999999997</v>
       </c>
       <c r="J28" s="8">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="18"/>
         <v>584.50258365299999</v>
       </c>
       <c r="K28" s="8">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="18"/>
         <v>6703.3479500789999</v>
       </c>
       <c r="L28" s="2" t="s">
@@ -2924,15 +3034,15 @@
         <v>15</v>
       </c>
       <c r="T28" s="35">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>22</v>
       </c>
       <c r="U28" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>19</v>
       </c>
       <c r="V28" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>23</v>
       </c>
     </row>
@@ -2941,51 +3051,51 @@
         <v>26</v>
       </c>
       <c r="B29" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Kolltveit</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>Ebbesvika</v>
       </c>
       <c r="C29" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.1401279999999998</v>
+      </c>
+      <c r="D29" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>60.336067999999997</v>
+      </c>
+      <c r="E29" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>570.662150688</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>6698.5706054279999</v>
+      </c>
+      <c r="G29" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Laksevåg</v>
+      </c>
+      <c r="H29" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>5.2647930000000001</v>
+      </c>
+      <c r="I29" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0878129999999997</v>
-      </c>
-      <c r="D29" s="4">
-        <f t="shared" ca="1" si="11"/>
-        <v>60.352223000000002</v>
-      </c>
-      <c r="E29" s="5">
-        <f t="shared" ca="1" si="22"/>
-        <v>564.85408707299996</v>
-      </c>
-      <c r="F29" s="5">
-        <f t="shared" ca="1" si="22"/>
-        <v>6700.3641496830005</v>
-      </c>
-      <c r="G29" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Årstad</v>
-      </c>
-      <c r="H29" s="6">
-        <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
-      </c>
-      <c r="I29" s="63">
-        <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J29" s="8">
-        <f t="shared" ca="1" si="23"/>
-        <v>594.22380445500005</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>584.50258365299999</v>
       </c>
       <c r="K29" s="8">
-        <f t="shared" ca="1" si="23"/>
-        <v>6701.6162445210002</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M29" s="3" cm="1">
         <f t="array" aca="1" ref="M29" ca="1">_xlfn.XLOOKUP(B29,$R$20:$R$47,_xlfn.XLOOKUP(G29,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="R29" s="58" t="s">
         <v>48</v>
@@ -2994,15 +3104,15 @@
         <v>20</v>
       </c>
       <c r="T29" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>27</v>
       </c>
       <c r="U29" s="23">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>24</v>
       </c>
       <c r="V29" s="24">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>28</v>
       </c>
     </row>
@@ -3011,43 +3121,43 @@
         <v>26</v>
       </c>
       <c r="B30" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Straume</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>Skogsvåg</v>
       </c>
       <c r="C30" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.0971859999999998</v>
+      </c>
+      <c r="D30" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>60.25994</v>
+      </c>
+      <c r="E30" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>565.89468690599995</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>6690.1187987399999</v>
+      </c>
+      <c r="G30" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ytrebygda</v>
+      </c>
+      <c r="H30" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>5.2586760000000004</v>
+      </c>
+      <c r="I30" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1213329999999999</v>
-      </c>
-      <c r="D30" s="4">
-        <f t="shared" ca="1" si="11"/>
-        <v>60.356560999999999</v>
-      </c>
-      <c r="E30" s="5">
-        <f t="shared" ca="1" si="22"/>
-        <v>568.57551099299997</v>
-      </c>
-      <c r="F30" s="5">
-        <f t="shared" ca="1" si="22"/>
-        <v>6700.8457587809999</v>
-      </c>
-      <c r="G30" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Ytrebygda</v>
-      </c>
-      <c r="H30" s="6">
-        <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
-      </c>
-      <c r="I30" s="63">
-        <f t="shared" ca="1" si="13"/>
         <v>60.290962</v>
       </c>
       <c r="J30" s="8">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="18"/>
         <v>583.82346819600002</v>
       </c>
       <c r="K30" s="8">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="18"/>
         <v>6693.5628922020005</v>
       </c>
       <c r="L30" s="2" t="s">
@@ -3055,7 +3165,7 @@
       </c>
       <c r="M30" s="3" cm="1">
         <f t="array" aca="1" ref="M30" ca="1">_xlfn.XLOOKUP(B30,$R$20:$R$47,_xlfn.XLOOKUP(G30,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="R30" s="58" t="s">
         <v>34</v>
@@ -3064,15 +3174,15 @@
         <v>15</v>
       </c>
       <c r="T30" s="35">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>22</v>
       </c>
       <c r="U30" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>19</v>
       </c>
       <c r="V30" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>23</v>
       </c>
     </row>
@@ -3081,51 +3191,51 @@
         <v>26</v>
       </c>
       <c r="B31" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Straume</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>Landro</v>
       </c>
       <c r="C31" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.9672090000000004</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>60.423364999999997</v>
+      </c>
+      <c r="E31" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>551.464510389</v>
+      </c>
+      <c r="F31" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>6708.2624056649993</v>
+      </c>
+      <c r="G31" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Årstad</v>
+      </c>
+      <c r="H31" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>5.3523550000000002</v>
+      </c>
+      <c r="I31" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1213329999999999</v>
-      </c>
-      <c r="D31" s="4">
-        <f t="shared" ca="1" si="11"/>
-        <v>60.356560999999999</v>
-      </c>
-      <c r="E31" s="5">
-        <f t="shared" ca="1" si="22"/>
-        <v>568.57551099299997</v>
-      </c>
-      <c r="F31" s="5">
-        <f t="shared" ca="1" si="22"/>
-        <v>6700.8457587809999</v>
-      </c>
-      <c r="G31" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Bergenhus</v>
-      </c>
-      <c r="H31" s="6">
-        <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
-      </c>
-      <c r="I31" s="63">
-        <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J31" s="8">
-        <f t="shared" ca="1" si="23"/>
-        <v>591.31594242300002</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>594.22380445500005</v>
       </c>
       <c r="K31" s="8">
-        <f t="shared" ca="1" si="23"/>
-        <v>6705.1587025890003</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M31" s="3" cm="1">
         <f t="array" aca="1" ref="M31" ca="1">_xlfn.XLOOKUP(B31,$R$20:$R$47,_xlfn.XLOOKUP(G31,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="R31" s="58" t="s">
         <v>37</v>
@@ -3134,15 +3244,15 @@
         <v>21</v>
       </c>
       <c r="T31" s="24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>28</v>
       </c>
       <c r="U31" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>25</v>
       </c>
       <c r="V31" s="18">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>29</v>
       </c>
     </row>
@@ -3151,51 +3261,51 @@
         <v>26</v>
       </c>
       <c r="B32" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Spjeld</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>Brattholmen</v>
       </c>
       <c r="C32" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>5.0396080000000003</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D32" s="4">
-        <f t="shared" ref="D32:D42" ca="1" si="27">_xlfn.XLOOKUP(B32,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.390343000000001</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>60.354616</v>
       </c>
       <c r="E32" s="5">
-        <f t="shared" ca="1" si="22"/>
-        <v>559.50231976800001</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>572.01061175400002</v>
       </c>
       <c r="F32" s="5">
-        <f t="shared" ca="1" si="22"/>
-        <v>6704.5962702030001</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>6700.629822936</v>
       </c>
       <c r="G32" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Bergenhus</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>Ytrebygda</v>
       </c>
       <c r="H32" s="6">
-        <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I32" s="63">
-        <f t="shared" ref="I32:I42" ca="1" si="28">_xlfn.XLOOKUP(G32,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <f t="shared" ref="I32:I42" ca="1" si="22">_xlfn.XLOOKUP(G32,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
+        <v>60.290962</v>
       </c>
       <c r="J32" s="8">
-        <f t="shared" ca="1" si="23"/>
-        <v>591.31594242300002</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>583.82346819600002</v>
       </c>
       <c r="K32" s="8">
-        <f t="shared" ca="1" si="23"/>
-        <v>6705.1587025890003</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M32" s="3" cm="1">
         <f t="array" aca="1" ref="M32" ca="1">_xlfn.XLOOKUP(B32,$R$20:$R$47,_xlfn.XLOOKUP(G32,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="R32" s="58" t="s">
         <v>49</v>
@@ -3204,15 +3314,15 @@
         <v>29</v>
       </c>
       <c r="T32" s="36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>36</v>
       </c>
       <c r="U32" s="37">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>33</v>
       </c>
       <c r="V32" s="38">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>37</v>
       </c>
     </row>
@@ -3221,51 +3331,51 @@
         <v>26</v>
       </c>
       <c r="B33" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Kårtveit</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>Skogsvåg</v>
       </c>
       <c r="C33" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>4.9934529999999997</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5.0971859999999998</v>
       </c>
       <c r="D33" s="4">
-        <f t="shared" ca="1" si="27"/>
-        <v>60.388651000000003</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>60.25994</v>
       </c>
       <c r="E33" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>565.89468690599995</v>
+      </c>
+      <c r="F33" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>6690.1187987399999</v>
+      </c>
+      <c r="G33" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Laksevåg</v>
+      </c>
+      <c r="H33" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>5.2647930000000001</v>
+      </c>
+      <c r="I33" s="63">
         <f t="shared" ca="1" si="22"/>
-        <v>554.37814551299994</v>
-      </c>
-      <c r="F33" s="5">
-        <f t="shared" ca="1" si="22"/>
-        <v>6704.4084226710002</v>
-      </c>
-      <c r="G33" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Ytrebygda</v>
-      </c>
-      <c r="H33" s="6">
-        <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
-      </c>
-      <c r="I33" s="63">
-        <f t="shared" ca="1" si="28"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J33" s="8">
-        <f t="shared" ca="1" si="23"/>
-        <v>583.82346819600002</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>584.50258365299999</v>
       </c>
       <c r="K33" s="8">
-        <f t="shared" ca="1" si="23"/>
-        <v>6693.5628922020005</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M33" s="3" cm="1">
         <f t="array" aca="1" ref="M33" ca="1">_xlfn.XLOOKUP(B33,$R$20:$R$47,_xlfn.XLOOKUP(G33,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="R33" s="58" t="s">
         <v>35</v>
@@ -3274,15 +3384,15 @@
         <v>11</v>
       </c>
       <c r="T33" s="40">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>18</v>
       </c>
       <c r="U33" s="34">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>15</v>
       </c>
       <c r="V33" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>19</v>
       </c>
     </row>
@@ -3291,66 +3401,66 @@
         <v>26</v>
       </c>
       <c r="B34" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Telavåg</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>Kleppe</v>
       </c>
       <c r="C34" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>4.9820219999999997</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5.1359649999999997</v>
       </c>
       <c r="D34" s="4">
-        <f t="shared" ca="1" si="27"/>
-        <v>60.261564</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>60.187809999999999</v>
       </c>
       <c r="E34" s="5">
-        <f t="shared" ref="E34:E42" ca="1" si="29">C34*111.021</f>
-        <v>553.10906446199999</v>
+        <f t="shared" ref="E34:E42" ca="1" si="23">C34*111.021</f>
+        <v>570.19997026499993</v>
       </c>
       <c r="F34" s="5">
-        <f t="shared" ref="F34:F42" ca="1" si="30">D34*111.021</f>
-        <v>6690.2990968439999</v>
+        <f t="shared" ref="F34:F42" ca="1" si="24">D34*111.021</f>
+        <v>6682.1108540100004</v>
       </c>
       <c r="G34" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Bergenhus</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>Ytrebygda</v>
       </c>
       <c r="H34" s="6">
-        <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I34" s="63">
-        <f t="shared" ca="1" si="28"/>
-        <v>60.395409000000001</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>60.290962</v>
       </c>
       <c r="J34" s="8">
-        <f t="shared" ref="J34:J42" ca="1" si="31">H34*111.021</f>
-        <v>591.31594242300002</v>
+        <f t="shared" ref="J34:J42" ca="1" si="25">H34*111.021</f>
+        <v>583.82346819600002</v>
       </c>
       <c r="K34" s="8">
-        <f t="shared" ref="K34:K42" ca="1" si="32">I34*111.021</f>
-        <v>6705.1587025890003</v>
+        <f t="shared" ref="K34:K42" ca="1" si="26">I34*111.021</f>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M34" s="3" cm="1">
         <f t="array" aca="1" ref="M34" ca="1">_xlfn.XLOOKUP(B34,$R$20:$R$47,_xlfn.XLOOKUP(G34,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="R34" s="58" t="s">
         <v>50</v>
       </c>
       <c r="S34" s="41"/>
       <c r="T34" s="42">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>7</v>
       </c>
       <c r="U34" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="V34" s="44">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
     </row>
@@ -3359,43 +3469,43 @@
         <v>26</v>
       </c>
       <c r="B35" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Straume</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>Bildøyna</v>
       </c>
       <c r="C35" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>5.1213329999999999</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D35" s="4">
-        <f t="shared" ca="1" si="27"/>
-        <v>60.356560999999999</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>60.354084999999998</v>
       </c>
       <c r="E35" s="5">
-        <f t="shared" ca="1" si="29"/>
-        <v>568.57551099299997</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>566.88266278499998</v>
       </c>
       <c r="F35" s="5">
-        <f t="shared" ca="1" si="30"/>
-        <v>6700.8457587809999</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G35" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>Årstad</v>
       </c>
       <c r="H35" s="6">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="9"/>
         <v>5.3523550000000002</v>
       </c>
       <c r="I35" s="63">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="22"/>
         <v>60.363500999999999</v>
       </c>
       <c r="J35" s="8">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="25"/>
         <v>594.22380445500005</v>
       </c>
       <c r="K35" s="8">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="26"/>
         <v>6701.6162445210002</v>
       </c>
       <c r="L35" s="2" t="s">
@@ -3412,15 +3522,15 @@
         <v>14</v>
       </c>
       <c r="T35" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>21</v>
       </c>
       <c r="U35" s="40">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>18</v>
       </c>
       <c r="V35" s="35">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>22</v>
       </c>
     </row>
@@ -3429,43 +3539,43 @@
         <v>26</v>
       </c>
       <c r="B36" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="3"/>
         <v>Kolltveit</v>
       </c>
       <c r="C36" s="3">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="4"/>
         <v>5.0878129999999997</v>
       </c>
       <c r="D36" s="4">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="5"/>
         <v>60.352223000000002</v>
       </c>
       <c r="E36" s="5">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="23"/>
         <v>564.85408707299996</v>
       </c>
       <c r="F36" s="5">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="24"/>
         <v>6700.3641496830005</v>
       </c>
       <c r="G36" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>Årstad</v>
       </c>
       <c r="H36" s="6">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="9"/>
         <v>5.3523550000000002</v>
       </c>
       <c r="I36" s="63">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="22"/>
         <v>60.363500999999999</v>
       </c>
       <c r="J36" s="8">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="25"/>
         <v>594.22380445500005</v>
       </c>
       <c r="K36" s="8">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="26"/>
         <v>6701.6162445210002</v>
       </c>
       <c r="L36" s="2" t="s">
@@ -3482,15 +3592,15 @@
         <v>33</v>
       </c>
       <c r="T36" s="46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>40</v>
       </c>
       <c r="U36" s="38">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>37</v>
       </c>
       <c r="V36" s="47">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>41</v>
       </c>
     </row>
@@ -3499,43 +3609,43 @@
         <v>26</v>
       </c>
       <c r="B37" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Spjeld</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>Telavåg</v>
       </c>
       <c r="C37" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>5.0396080000000003</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D37" s="4">
-        <f t="shared" ca="1" si="27"/>
-        <v>60.390343000000001</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>60.261564</v>
       </c>
       <c r="E37" s="5">
-        <f t="shared" ca="1" si="29"/>
-        <v>559.50231976800001</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>553.10906446199999</v>
       </c>
       <c r="F37" s="5">
-        <f t="shared" ca="1" si="30"/>
-        <v>6704.5962702030001</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G37" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>Årstad</v>
       </c>
       <c r="H37" s="6">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="9"/>
         <v>5.3523550000000002</v>
       </c>
       <c r="I37" s="63">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="22"/>
         <v>60.363500999999999</v>
       </c>
       <c r="J37" s="8">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="25"/>
         <v>594.22380445500005</v>
       </c>
       <c r="K37" s="8">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="26"/>
         <v>6701.6162445210002</v>
       </c>
       <c r="L37" s="2" t="s">
@@ -3543,7 +3653,7 @@
       </c>
       <c r="M37" s="3" cm="1">
         <f t="array" aca="1" ref="M37" ca="1">_xlfn.XLOOKUP(B37,$R$20:$R$47,_xlfn.XLOOKUP(G37,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="R37" s="58" t="s">
         <v>53</v>
@@ -3552,15 +3662,15 @@
         <v>17</v>
       </c>
       <c r="T37" s="23">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>24</v>
       </c>
       <c r="U37" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>21</v>
       </c>
       <c r="V37" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>25</v>
       </c>
     </row>
@@ -3569,43 +3679,43 @@
         <v>26</v>
       </c>
       <c r="B38" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Telavåg</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>Hammersland</v>
       </c>
       <c r="C38" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>4.9820219999999997</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5.0687990000000003</v>
       </c>
       <c r="D38" s="4">
-        <f t="shared" ca="1" si="27"/>
-        <v>60.261564</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>60.259569999999997</v>
       </c>
       <c r="E38" s="5">
-        <f t="shared" ca="1" si="29"/>
-        <v>553.10906446199999</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>562.743133779</v>
       </c>
       <c r="F38" s="5">
-        <f t="shared" ca="1" si="30"/>
-        <v>6690.2990968439999</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>6690.07772097</v>
       </c>
       <c r="G38" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>Årstad</v>
       </c>
       <c r="H38" s="6">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="9"/>
         <v>5.3523550000000002</v>
       </c>
       <c r="I38" s="63">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="22"/>
         <v>60.363500999999999</v>
       </c>
       <c r="J38" s="8">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="25"/>
         <v>594.22380445500005</v>
       </c>
       <c r="K38" s="8">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="26"/>
         <v>6701.6162445210002</v>
       </c>
       <c r="L38" s="2" t="s">
@@ -3613,7 +3723,7 @@
       </c>
       <c r="M38" s="3" cm="1">
         <f t="array" aca="1" ref="M38" ca="1">_xlfn.XLOOKUP(B38,$R$20:$R$47,_xlfn.XLOOKUP(G38,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="R38" s="58" t="s">
         <v>54</v>
@@ -3622,15 +3732,15 @@
         <v>32</v>
       </c>
       <c r="T38" s="49">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>39</v>
       </c>
       <c r="U38" s="36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>36</v>
       </c>
       <c r="V38" s="46">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>40</v>
       </c>
     </row>
@@ -3639,43 +3749,43 @@
         <v>26</v>
       </c>
       <c r="B39" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Bildøyna</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>Straume</v>
       </c>
       <c r="C39" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>5.1060850000000002</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D39" s="4">
-        <f t="shared" ca="1" si="27"/>
-        <v>60.354084999999998</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>60.356560999999999</v>
       </c>
       <c r="E39" s="5">
-        <f t="shared" ca="1" si="29"/>
-        <v>566.88266278499998</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>568.57551099299997</v>
       </c>
       <c r="F39" s="5">
-        <f t="shared" ca="1" si="30"/>
-        <v>6700.5708707849999</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G39" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>Laksevåg</v>
       </c>
       <c r="H39" s="6">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="9"/>
         <v>5.2647930000000001</v>
       </c>
       <c r="I39" s="63">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="22"/>
         <v>60.379098999999997</v>
       </c>
       <c r="J39" s="8">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="25"/>
         <v>584.50258365299999</v>
       </c>
       <c r="K39" s="8">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="26"/>
         <v>6703.3479500789999</v>
       </c>
       <c r="L39" s="2" t="s">
@@ -3692,15 +3802,15 @@
         <v>37</v>
       </c>
       <c r="T39" s="50">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>44</v>
       </c>
       <c r="U39" s="47">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>41</v>
       </c>
       <c r="V39" s="51">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>45</v>
       </c>
     </row>
@@ -3709,66 +3819,66 @@
         <v>26</v>
       </c>
       <c r="B40" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Bildøyna</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>Straume</v>
       </c>
       <c r="C40" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>5.1060850000000002</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D40" s="4">
-        <f t="shared" ca="1" si="27"/>
-        <v>60.354084999999998</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>60.356560999999999</v>
       </c>
       <c r="E40" s="5">
-        <f t="shared" ca="1" si="29"/>
-        <v>566.88266278499998</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>568.57551099299997</v>
       </c>
       <c r="F40" s="5">
-        <f t="shared" ca="1" si="30"/>
-        <v>6700.5708707849999</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G40" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Bergenhus</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>Årstad</v>
       </c>
       <c r="H40" s="6">
-        <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I40" s="63">
-        <f t="shared" ca="1" si="28"/>
-        <v>60.395409000000001</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>60.363500999999999</v>
       </c>
       <c r="J40" s="8">
-        <f t="shared" ca="1" si="31"/>
-        <v>591.31594242300002</v>
+        <f t="shared" ca="1" si="25"/>
+        <v>594.22380445500005</v>
       </c>
       <c r="K40" s="8">
-        <f t="shared" ca="1" si="32"/>
-        <v>6705.1587025890003</v>
+        <f t="shared" ca="1" si="26"/>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L40" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M40" s="3" cm="1">
         <f t="array" aca="1" ref="M40" ca="1">_xlfn.XLOOKUP(B40,$R$20:$R$47,_xlfn.XLOOKUP(G40,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="R40" s="58" t="s">
         <v>56</v>
       </c>
       <c r="S40" s="41"/>
       <c r="T40" s="42">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>7</v>
       </c>
       <c r="U40" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="V40" s="44">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
     </row>
@@ -3777,43 +3887,43 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Brattholmen</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>Bildøyna</v>
       </c>
       <c r="C41" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>5.1522740000000002</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D41" s="4">
-        <f t="shared" ca="1" si="27"/>
-        <v>60.354616</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>60.354084999999998</v>
       </c>
       <c r="E41" s="5">
-        <f t="shared" ca="1" si="29"/>
-        <v>572.01061175400002</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>566.88266278499998</v>
       </c>
       <c r="F41" s="5">
-        <f t="shared" ca="1" si="30"/>
-        <v>6700.629822936</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G41" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>Laksevåg</v>
       </c>
       <c r="H41" s="6">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="9"/>
         <v>5.2647930000000001</v>
       </c>
       <c r="I41" s="63">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="22"/>
         <v>60.379098999999997</v>
       </c>
       <c r="J41" s="8">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="25"/>
         <v>584.50258365299999</v>
       </c>
       <c r="K41" s="8">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="26"/>
         <v>6703.3479500789999</v>
       </c>
       <c r="L41" s="2" t="s">
@@ -3821,7 +3931,7 @@
       </c>
       <c r="M41" s="3" cm="1">
         <f t="array" aca="1" ref="M41" ca="1">_xlfn.XLOOKUP(B41,$R$20:$R$47,_xlfn.XLOOKUP(G41,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="R41" s="58" t="s">
         <v>32</v>
@@ -3830,15 +3940,15 @@
         <v>40</v>
       </c>
       <c r="T41" s="27">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>47</v>
       </c>
       <c r="U41" s="50">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>44</v>
       </c>
       <c r="V41" s="52">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>48</v>
       </c>
     </row>
@@ -3847,43 +3957,43 @@
         <v>26</v>
       </c>
       <c r="B42" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Telavåg</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>Kårtveit</v>
       </c>
       <c r="C42" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>4.9820219999999997</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D42" s="4">
-        <f t="shared" ca="1" si="27"/>
-        <v>60.261564</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>60.388651000000003</v>
       </c>
       <c r="E42" s="5">
-        <f t="shared" ca="1" si="29"/>
-        <v>553.10906446199999</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>554.37814551299994</v>
       </c>
       <c r="F42" s="5">
-        <f t="shared" ca="1" si="30"/>
-        <v>6690.2990968439999</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G42" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>Årstad</v>
       </c>
       <c r="H42" s="6">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="9"/>
         <v>5.3523550000000002</v>
       </c>
       <c r="I42" s="63">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="22"/>
         <v>60.363500999999999</v>
       </c>
       <c r="J42" s="8">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="25"/>
         <v>594.22380445500005</v>
       </c>
       <c r="K42" s="8">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="26"/>
         <v>6701.6162445210002</v>
       </c>
       <c r="L42" s="2" t="s">
@@ -3891,7 +4001,7 @@
       </c>
       <c r="M42" s="3" cm="1">
         <f t="array" aca="1" ref="M42" ca="1">_xlfn.XLOOKUP(B42,$R$20:$R$47,_xlfn.XLOOKUP(G42,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="R42" s="58" t="s">
         <v>57</v>
@@ -3900,15 +4010,15 @@
         <v>28</v>
       </c>
       <c r="T42" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>35</v>
       </c>
       <c r="U42" s="48">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>32</v>
       </c>
       <c r="V42" s="36">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>36</v>
       </c>
     </row>
@@ -3928,15 +4038,15 @@
         <v>36</v>
       </c>
       <c r="T43" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>43</v>
       </c>
       <c r="U43" s="46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>40</v>
       </c>
       <c r="V43" s="50">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>44</v>
       </c>
     </row>
@@ -3956,15 +4066,15 @@
         <v>44</v>
       </c>
       <c r="T44" s="54">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>51</v>
       </c>
       <c r="U44" s="52">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>48</v>
       </c>
       <c r="V44" s="28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>52</v>
       </c>
     </row>
@@ -3976,15 +4086,15 @@
         <v>30</v>
       </c>
       <c r="T45" s="38">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>37</v>
       </c>
       <c r="U45" s="56">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>34</v>
       </c>
       <c r="V45" s="57">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>38</v>
       </c>
     </row>
@@ -3996,15 +4106,15 @@
         <v>15</v>
       </c>
       <c r="T46" s="35">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>22</v>
       </c>
       <c r="U46" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>19</v>
       </c>
       <c r="V46" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>23</v>
       </c>
     </row>
@@ -4016,15 +4126,15 @@
         <v>26</v>
       </c>
       <c r="T47" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>33</v>
       </c>
       <c r="U47" s="23">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>30</v>
       </c>
       <c r="V47" s="24">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>34</v>
       </c>
     </row>
@@ -5150,50 +5260,50 @@
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:B9" ca="1" si="0">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Brattholmen</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C2" s="3">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1522740000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D2" s="4">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E2" s="5">
         <f t="shared" ref="E2:F17" ca="1" si="1">C2*111.021</f>
-        <v>572.01061175400002</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F2" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.629822936</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G2" s="3" t="str">
         <f t="shared" ref="G2:G8" ca="1" si="2">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H2" s="6">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I2" s="63">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J2" s="8">
         <f t="shared" ref="J2:K17" ca="1" si="3">H2*111.021</f>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K2" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="3" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">_xlfn.XLOOKUP(B2,$R$20:$R$47,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N2" s="2">
         <v>4</v>
@@ -5224,23 +5334,23 @@
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Knarrevik</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C3" s="3">
         <f ca="1">_xlfn.XLOOKUP(B3,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1530250000000004</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3" ca="1" si="4">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.368082999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.0939885250001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6702.1249427430002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -5267,7 +5377,7 @@
       </c>
       <c r="M3" s="3" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="N3" s="2">
         <v>4</v>
@@ -5300,50 +5410,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Foldnes</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C4" s="3">
         <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1065680000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D4" s="4">
         <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
+        <v>60.354616</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.93628592800007</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.0025637480003</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H4" s="6">
         <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I4" s="63">
         <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="N4" s="2">
         <v>4</v>
@@ -5373,50 +5483,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Telavåg</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C6" ca="1" si="6">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9820219999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ref="D5:D6" ca="1" si="7">_xlfn.XLOOKUP(B5,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.261564</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>553.10906446199999</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6690.2990968439999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ref="H5:H6" ca="1" si="8">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ref="I5:I6" ca="1" si="9">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="N5" s="2">
         <v>4</v>
@@ -5446,50 +5556,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Kolltveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.0878129999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.352223000000002</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>564.85408707299996</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.3641496830005</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="N6" s="2">
         <v>4</v>
@@ -5519,50 +5629,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Brattholmen</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C7" s="3">
         <f ca="1">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1522740000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D7" s="4">
         <f ca="1">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.01061175400002</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.629822936</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H7" s="6">
         <f ca="1">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I7" s="63">
         <f ca="1">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N7" s="2">
         <v>4</v>
@@ -5583,23 +5693,23 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Knappskog</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ref="C8:C31" ca="1" si="10">_xlfn.XLOOKUP(B8,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0559289999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ref="D8:D27" ca="1" si="11">_xlfn.XLOOKUP(B8,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>561.31429350899998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.7674984380001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -5626,7 +5736,7 @@
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N8" s="2">
         <v>4</v>
@@ -5647,50 +5757,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Straume</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1213329999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.356560999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>568.57551099299997</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.8457587809999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ref="G9:G31" ca="1" si="14">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -5708,50 +5818,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ref="B10:B31" ca="1" si="15">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Knappskog</v>
+        <v>Telavåg</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0559289999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.382877999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>561.31429350899998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.7674984380001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -5769,23 +5879,23 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bildøyna</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1060850000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354084999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.88266278499998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.5708707849999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -5812,7 +5922,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -5831,50 +5941,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Brattholmen</v>
+        <v>Spjeld</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1522740000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354616</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.01061175400002</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.629822936</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -5895,50 +6005,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Telavåg</v>
+        <v>Straume</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9820219999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.261564</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>553.10906446199999</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6690.2990968439999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5947,50 +6057,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Telavåg</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9820219999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.261564</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>553.10906446199999</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6690.2990968439999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -5999,50 +6109,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kårtveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9934529999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.388651000000003</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>554.37814551299994</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.4084226710002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -6051,50 +6161,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Foldnes</v>
+        <v>Knappskog</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1065680000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.375988</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.93628592800007</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.0025637480003</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -6103,23 +6213,23 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knappskog</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0559289999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.382877999999998</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>561.31429350899998</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.7674984380001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -6146,7 +6256,7 @@
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -6155,50 +6265,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Foldnes</v>
+        <v>Knappskog</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1065680000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.375988</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F31" ca="1" si="16">C18*111.021</f>
-        <v>566.93628592800007</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.0025637480003</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:K31" ca="1" si="17">H18*111.021</f>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -6207,50 +6317,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bildøyna</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1060850000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354084999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.88266278499998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.5708707849999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -6272,50 +6382,50 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Straume</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1213329999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.356560999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>568.57551099299997</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.8457587809999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -6339,50 +6449,50 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kolltveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0878129999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.352223000000002</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>564.85408707299996</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.3641496830005</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I21" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -6406,50 +6516,50 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kolltveit</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0878129999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.352223000000002</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>564.85408707299996</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.3641496830005</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -6479,23 +6589,23 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Telavåg</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9820219999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.261564</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>553.10906446199999</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6690.2990968439999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -6522,7 +6632,7 @@
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -6552,50 +6662,50 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Brattholmen</v>
+        <v>Straume</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1522740000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354616</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.01061175400002</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.629822936</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -6626,50 +6736,50 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kolltveit</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0878129999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.352223000000002</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>564.85408707299996</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.3641496830005</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -6696,23 +6806,23 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knappskog</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0559289999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.382877999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>561.31429350899998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.7674984380001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -6739,7 +6849,7 @@
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -6836,50 +6946,50 @@
       </c>
       <c r="B28" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Straume</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C28" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1213329999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D28" s="4">
         <f t="shared" ref="D28:D31" ca="1" si="21">_xlfn.XLOOKUP(B28,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.356560999999999</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E28" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>568.57551099299997</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.8457587809999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G28" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H28" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I28" s="63">
         <f t="shared" ref="I28:I31" ca="1" si="22">_xlfn.XLOOKUP(G28,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J28" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K28" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M28" s="3" cm="1">
         <f t="array" aca="1" ref="M28" ca="1">_xlfn.XLOOKUP(B28,$R$20:$R$47,_xlfn.XLOOKUP(G28,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="R28" s="58" t="s">
         <v>47</v>
@@ -6906,50 +7016,50 @@
       </c>
       <c r="B29" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Foldnes</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C29" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1065680000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D29" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>60.375988</v>
+        <v>60.354616</v>
       </c>
       <c r="E29" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.93628592800007</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F29" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.0025637480003</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G29" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H29" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I29" s="63">
         <f t="shared" ca="1" si="22"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J29" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K29" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M29" s="3" cm="1">
         <f t="array" aca="1" ref="M29" ca="1">_xlfn.XLOOKUP(B29,$R$20:$R$47,_xlfn.XLOOKUP(G29,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="R29" s="58" t="s">
         <v>48</v>
@@ -6976,50 +7086,50 @@
       </c>
       <c r="B30" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Brattholmen</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C30" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1522740000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D30" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>60.354616</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E30" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.01061175400002</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F30" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.629822936</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G30" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H30" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I30" s="63">
         <f t="shared" ca="1" si="22"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J30" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K30" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M30" s="3" cm="1">
         <f t="array" aca="1" ref="M30" ca="1">_xlfn.XLOOKUP(B30,$R$20:$R$47,_xlfn.XLOOKUP(G30,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="R30" s="58" t="s">
         <v>34</v>
@@ -7046,50 +7156,50 @@
       </c>
       <c r="B31" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Straume</v>
+        <v>Foldnes</v>
       </c>
       <c r="C31" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1213329999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D31" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>60.356560999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E31" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>568.57551099299997</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F31" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.8457587809999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G31" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H31" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I31" s="63">
         <f t="shared" ca="1" si="22"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J31" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K31" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M31" s="3" cm="1">
         <f t="array" aca="1" ref="M31" ca="1">_xlfn.XLOOKUP(B31,$R$20:$R$47,_xlfn.XLOOKUP(G31,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="R31" s="58" t="s">
         <v>37</v>
@@ -8096,23 +8206,23 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ref="B9:B27" ca="1" si="14">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Telavåg</v>
+        <v>Spjeld</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ref="G9:G27" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -8139,7 +8249,7 @@
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -8157,23 +8267,23 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Brattholmen</v>
+        <v>Spjeld</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -8200,7 +8310,7 @@
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -8218,23 +8328,23 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bildøyna</v>
+        <v>Knappskog</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -8261,7 +8371,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -8280,23 +8390,23 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Brattholmen</v>
+        <v>Straume</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -8323,7 +8433,7 @@
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -8344,50 +8454,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Brattholmen</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8396,23 +8506,23 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kolltveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -8439,7 +8549,7 @@
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -8448,50 +8558,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Telavåg</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -8520,30 +8630,30 @@
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -8552,50 +8662,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Telavåg</v>
+        <v>Knappskog</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -8604,50 +8714,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knappskog</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F27" ca="1" si="16">C18*111.021</f>
-        <v>561.31429350899998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.7674984380001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:K27" ca="1" si="17">H18*111.021</f>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -8656,23 +8766,23 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kolltveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.261564</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>564.85408707299996</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.3641496830005</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -8699,7 +8809,7 @@
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -8721,50 +8831,50 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kårtveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>554.37814551299994</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.4084226710002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -8788,23 +8898,23 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kårtveit</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>554.37814551299994</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.4084226710002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -8831,7 +8941,7 @@
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -8855,50 +8965,50 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knappskog</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>561.31429350899998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.7674984380001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -8928,50 +9038,50 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Spjeld</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.354616</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>559.50231976800001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.5962702030001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -9001,50 +9111,50 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bildøyna</v>
+        <v>Knappskog</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.88266278499998</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.5708707849999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -9075,50 +9185,50 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knappskog</v>
+        <v>Straume</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>561.31429350899998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.7674984380001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -9145,50 +9255,50 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knarrevik</v>
+        <v>Knappskog</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.0939885250001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6702.1249427430002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -9215,50 +9325,50 @@
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Straume</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C27" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" ref="D27" ca="1" si="21">_xlfn.XLOOKUP(B27,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.356560999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>568.57551099299997</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.8457587809999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H27" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I27" s="63">
         <f t="shared" ref="I27" ca="1" si="22">_xlfn.XLOOKUP(G27,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J27" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K27" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M27" s="3" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">_xlfn.XLOOKUP(B27,$R$20:$R$47,_xlfn.XLOOKUP(G27,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="R27" s="58" t="s">
         <v>39</v>
@@ -10268,30 +10378,30 @@
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G26" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -10309,50 +10419,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -10390,30 +10500,30 @@
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -10431,50 +10541,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -10492,50 +10602,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Knappskog</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -10554,50 +10664,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -10618,50 +10728,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10670,23 +10780,23 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Straume</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -10713,7 +10823,7 @@
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -10742,30 +10852,30 @@
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -10774,50 +10884,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.354616</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -10826,50 +10936,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.354616</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -10878,50 +10988,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Spjeld</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F24" ca="1" si="10">C18*111.021</f>
-        <v>572.01061175400002</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.629822936</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:K24" ca="1" si="11">H18*111.021</f>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -10930,50 +11040,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>568.57551099299997</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.8457587809999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -10995,50 +11105,50 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ref="D20:D26" ca="1" si="12">_xlfn.XLOOKUP(B20,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.261564</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>553.10906446199999</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6690.2990968439999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ref="I20:I26" ca="1" si="13">_xlfn.XLOOKUP(G20,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -11062,50 +11172,50 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Telavåg</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354616</v>
+        <v>60.261564</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>572.01061175400002</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.629822936</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I21" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -11149,30 +11259,30 @@
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -11202,23 +11312,23 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.388651000000003</v>
+        <v>60.375988</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>554.37814551299994</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.4084226710002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -11245,7 +11355,7 @@
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -11275,50 +11385,50 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Spjeld</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.375988</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>566.93628592800007</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.0025637480003</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -11349,23 +11459,23 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.375988</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ref="E25:E26" ca="1" si="14">C25*111.021</f>
-        <v>566.93628592800007</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ref="F25:F26" ca="1" si="15">D25*111.021</f>
-        <v>6703.0025637480003</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -11392,7 +11502,7 @@
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -11419,50 +11529,50 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Knappskog</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.375988</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>566.93628592800007</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6703.0025637480003</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -12480,50 +12590,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B19" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Straume</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G19" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -12541,50 +12651,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -12602,50 +12712,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Foldnes</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -12663,50 +12773,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Foldnes</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.375988</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -12786,50 +12896,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Knappskog</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -12850,23 +12960,23 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Knappskog</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -12893,7 +13003,7 @@
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12902,23 +13012,23 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -12945,7 +13055,7 @@
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -12954,50 +13064,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -13006,50 +13116,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -13058,50 +13168,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ref="D17:D19" ca="1" si="10">_xlfn.XLOOKUP(B17,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ref="E17:E19" ca="1" si="11">C17*111.021</f>
-        <v>554.37814551299994</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ref="F17:F19" ca="1" si="12">D17*111.021</f>
-        <v>6704.4084226710002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ref="I17:I19" ca="1" si="13">_xlfn.XLOOKUP(G17,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ref="J17:J19" ca="1" si="14">H17*111.021</f>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ref="K17:K19" ca="1" si="15">I17*111.021</f>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -13110,23 +13220,23 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Spjeld</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.354084999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>566.88266278499998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6700.5708707849999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -13153,7 +13263,7 @@
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -13162,50 +13272,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.382877999999998</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>561.31429350899998</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6703.7674984380001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -14418,23 +14528,23 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B16" ca="1" si="12">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Knappskog</v>
+        <v>Spjeld</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ref="C7:C16" ca="1" si="13">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0559289999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D13" ca="1" si="14">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G16" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -14461,7 +14571,7 @@
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -14479,50 +14589,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knarrevik</v>
+        <v>Straume</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1530250000000004</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.368082999999999</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -14540,23 +14650,23 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Spjeld</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0396080000000003</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.390343000000001</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -14583,7 +14693,7 @@
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -14601,23 +14711,23 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knarrevik</v>
+        <v>Telavåg</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1530250000000004</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.368082999999999</v>
+        <v>60.261564</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -14644,7 +14754,7 @@
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -14662,50 +14772,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Spjeld</v>
+        <v>Straume</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0396080000000003</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.390343000000001</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -14724,50 +14834,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knarrevik</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1530250000000004</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.368082999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -14788,50 +14898,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Spjeld</v>
+        <v>Telavåg</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0396080000000003</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.390343000000001</v>
+        <v>60.261564</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14860,30 +14970,30 @@
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ref="I14:I16" ca="1" si="21">_xlfn.XLOOKUP(G14,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ref="J14:J16" ca="1" si="22">H14*111.021</f>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ref="K14:K16" ca="1" si="23">I14*111.021</f>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -14892,50 +15002,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knappskog</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0559289999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.382877999999998</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>561.31429350899998</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6703.7674984380001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="21"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -14944,23 +15054,23 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Telavåg</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9820219999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.261564</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>553.10906446199999</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6690.2990968439999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -14987,7 +15097,7 @@
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
@@ -16088,50 +16198,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ref="B5:B13" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Bildøyna</v>
+        <v>Knappskog</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C13" ca="1" si="9">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1060850000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.354084999999998</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ref="G5:G13" ca="1" si="10">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ref="I5:I11" ca="1" si="11">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -16158,50 +16268,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Knappskog</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1213329999999999</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.356560999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -16228,23 +16338,23 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1060850000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="12">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354084999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -16271,7 +16381,7 @@
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -16289,23 +16399,23 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Spjeld</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1213329999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.356560999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -16332,7 +16442,7 @@
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -16370,30 +16480,30 @@
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -16411,50 +16521,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0878129999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.352223000000002</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -16472,50 +16582,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0559289999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.382877999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -16534,50 +16644,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Knappskog</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1522740000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ref="D12:D13" ca="1" si="13">_xlfn.XLOOKUP(B12,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ref="E12:E13" ca="1" si="14">C12*111.021</f>
-        <v>572.01061175400002</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ref="F12:F13" ca="1" si="15">D12*111.021</f>
-        <v>6700.629822936</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ref="I12:I13" ca="1" si="16">_xlfn.XLOOKUP(G12,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ref="J12:J13" ca="1" si="17">H12*111.021</f>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ref="K12:K13" ca="1" si="18">I12*111.021</f>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -16598,23 +16708,23 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0878129999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>60.352223000000002</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>564.85408707299996</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6700.3641496830005</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -16641,7 +16751,7 @@
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17691,50 +17801,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B11" ca="1" si="4">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Knarrevik</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C11" ca="1" si="5">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1530250000000004</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.368082999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G11" ca="1" si="6">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="7">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -17761,23 +17871,23 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Spjeld</v>
+        <v>Foldnes</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0396080000000003</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.390343000000001</v>
+        <v>60.375988</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -17804,7 +17914,7 @@
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -17831,50 +17941,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Knappskog</v>
+        <v>Foldnes</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0559289999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -17901,50 +18011,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Kårtveit</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4.9934529999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="8">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ref="E7:E11" ca="1" si="9">C7*111.021</f>
-        <v>554.37814551299994</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ref="F7:F11" ca="1" si="10">D7*111.021</f>
-        <v>6704.4084226710002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I11" ca="1" si="11">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ref="J7:J11" ca="1" si="12">H7*111.021</f>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ref="K7:K11" ca="1" si="13">I7*111.021</f>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -17962,50 +18072,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Bildøyna</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1060850000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.354084999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>566.88266278499998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.5708707849999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>88</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -18023,50 +18133,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Brattholmen</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1522740000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.354616</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>572.01061175400002</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.629822936</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>89</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -18104,30 +18214,30 @@
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>90</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -18145,50 +18255,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Kolltveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0878129999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.352223000000002</v>
+        <v>60.375988</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>564.85408707299996</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.3641496830005</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>91</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -19273,50 +19383,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B6" ca="1" si="6">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Knappskog</v>
+        <v>Spjeld</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C6" ca="1" si="7">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0559289999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.382877999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ref="E4:F4" ca="1" si="8">C4*111.021</f>
-        <v>561.31429350899998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>6703.7674984380001</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G6" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="10">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ref="J4:K4" ca="1" si="11">H4*111.021</f>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -19343,50 +19453,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Foldnes</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1065680000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.375988</v>
+        <v>60.354616</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:F5" ca="1" si="12">C5*111.021</f>
-        <v>566.93628592800007</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6703.0025637480003</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ref="J5:K5" ca="1" si="13">H5*111.021</f>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -19433,30 +19543,30 @@
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ref="J6:K6" ca="1" si="15">H6*111.021</f>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>

--- a/Large Instances/Large1.xlsx
+++ b/Large Instances/Large1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacobni\SamkjøringKode\samkjoring2022\Large Instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5373AE8-0A33-4D72-AEC5-8FE751701E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6CC19F-6414-410C-9B56-D4D53916E4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="92">
   <si>
     <t>Rider</t>
   </si>
@@ -1112,8 +1112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F9237F8-759A-1046-9CA0-16FCEE066690}">
   <dimension ref="A1:AB932"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1177,50 +1177,50 @@
       </c>
       <c r="B2" s="3" t="str">
         <f ca="1">INDEX($W$3:$W$126,RANDBETWEEN(1,ROWS($W$3:$W$26)),1)</f>
-        <v>Skogsvåg</v>
+        <v>Arefjord</v>
       </c>
       <c r="C2" s="3">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$26,$X$3:$X$26,0)</f>
-        <v>5.0971859999999998</v>
+        <v>5.1424630000000002</v>
       </c>
       <c r="D2" s="4">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$26,$Y$3:$Y$26,0)</f>
-        <v>60.25994</v>
+        <v>60.358854999999998</v>
       </c>
       <c r="E2" s="5">
         <f t="shared" ref="E2:F17" ca="1" si="0">C2*111.021</f>
-        <v>565.89468690599995</v>
+        <v>570.92138472300007</v>
       </c>
       <c r="F2" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.1187987399999</v>
+        <v>6701.1004409549996</v>
       </c>
       <c r="G2" s="3" t="str">
         <f t="shared" ref="G2:G42" ca="1" si="1">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H2" s="6">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I2" s="63">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J2" s="8">
         <f t="shared" ref="J2:K17" ca="1" si="2">H2*111.021</f>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K2" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="3" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">_xlfn.XLOOKUP(B2,$R$20:$R$47,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="N2" s="2">
         <v>4</v>
@@ -1251,23 +1251,23 @@
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" ref="B3:B42" ca="1" si="3">INDEX($W$3:$W$126,RANDBETWEEN(1,ROWS($W$3:$W$26)),1)</f>
-        <v>Knarrevik</v>
+        <v>Kleppe</v>
       </c>
       <c r="C3" s="3">
         <f t="shared" ref="C3:C42" ca="1" si="4">_xlfn.XLOOKUP(B3,$W$3:$W$26,$X$3:$X$26,0)</f>
-        <v>5.1530250000000004</v>
+        <v>5.1359649999999997</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3:D42" ca="1" si="5">_xlfn.XLOOKUP(B3,$W$3:$W$26,$Y$3:$Y$26,0)</f>
-        <v>60.368082999999999</v>
+        <v>60.187809999999999</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>570.19997026499993</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6682.1108540100004</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="M3" s="3" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="N3" s="2">
         <v>4</v>
@@ -1327,50 +1327,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Knarrevik</v>
+        <v>Hjelteryggen</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1544819999999998</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.381360999999998</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>572.25574612200001</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6703.5990795810003</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H4" s="6">
         <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I4" s="63">
         <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="N4" s="2">
         <v>4</v>
@@ -1400,50 +1400,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Hjelteryggen</v>
+        <v>Kleppe</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1544819999999998</v>
+        <v>5.1359649999999997</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.381360999999998</v>
+        <v>60.187809999999999</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.25574612200001</v>
+        <v>570.19997026499993</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.5990795810003</v>
+        <v>6682.1108540100004</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ref="H5:H6" ca="1" si="7">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ref="I5:I6" ca="1" si="8">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="N5" s="2">
         <v>4</v>
@@ -1473,50 +1473,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Bildøyna</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="N6" s="2">
         <v>4</v>
@@ -1546,50 +1546,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Foldnes</v>
+        <v>Hammersland</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.0687990000000003</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.259569999999997</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>562.743133779</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6690.07772097</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H7" s="6">
         <f ca="1">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I7" s="63">
         <f ca="1">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="N7" s="2">
         <v>4</v>
@@ -1610,50 +1610,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Bildøyna</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ref="H8:H42" ca="1" si="9">_xlfn.XLOOKUP(G8,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ref="I8:I31" ca="1" si="10">_xlfn.XLOOKUP(G8,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="N8" s="2">
         <v>4</v>
@@ -1674,50 +1674,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Bildøyna</v>
+        <v>Hammersland</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0687990000000003</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.259569999999997</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ref="E9:E11" ca="1" si="11">C9*111.021</f>
-        <v>566.88266278499998</v>
+        <v>562.743133779</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ref="F9:F11" ca="1" si="12">D9*111.021</f>
-        <v>6700.5708707849999</v>
+        <v>6690.07772097</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H9" s="6">
         <f ca="1">_xlfn.XLOOKUP(G9,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I9" s="63">
         <f ca="1">_xlfn.XLOOKUP(G9,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ref="J9:J11" ca="1" si="13">H9*111.021</f>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ref="K9:K11" ca="1" si="14">I9*111.021</f>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>88</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="N9" s="2">
         <v>4</v>
@@ -1738,50 +1738,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Blomøy</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.8927480000000001</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.538108000000001</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>543.19777570799999</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6721.0012882680003</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ref="H10:H11" ca="1" si="15">_xlfn.XLOOKUP(G10,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ref="I10:I11" ca="1" si="16">_xlfn.XLOOKUP(G10,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>89</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="N10" s="2">
         <v>4</v>
@@ -1802,23 +1802,23 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Vågo</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1245659999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388821</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>568.93444188599995</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6704.4272962410005</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="N11" s="2">
         <v>4</v>
@@ -1867,50 +1867,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Kårtveit</v>
+        <v>Vorland</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.0677450000000004</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.227445000000003</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>562.62611764500002</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6686.5111713450005</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -1931,50 +1931,57 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Knarrevik</v>
+        <v>Vorland</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.0677450000000004</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.227445000000003</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>562.62611764500002</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6686.5111713450005</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>72</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>26</v>
+      </c>
+      <c r="R13">
+        <f>COUNTIF(A2:A42,Q13)</f>
+        <v>23</v>
       </c>
       <c r="W13" t="s">
         <v>42</v>
@@ -1992,23 +1999,23 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Knarrevik</v>
+        <v>Kleppe</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1359649999999997</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.187809999999999</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>570.19997026499993</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6682.1108540100004</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2035,7 +2042,14 @@
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>42</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>14</v>
+      </c>
+      <c r="R14">
+        <f>COUNTIF(A2:A42,Q14)</f>
+        <v>10</v>
       </c>
       <c r="W14" t="s">
         <v>44</v>
@@ -2053,50 +2067,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Spjeld</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="W15" t="s">
         <v>46</v>
@@ -2114,50 +2128,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Rongøy</v>
+        <v>Solsvik</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9155160000000002</v>
+        <v>4.9664089999999996</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.507615999999999</v>
+        <v>60.431001999999999</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>545.72550183600003</v>
+        <v>551.37569358899998</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6717.6160359360001</v>
+        <v>6709.1102730419998</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="W16" t="s">
         <v>47</v>
@@ -2175,50 +2189,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Kolltveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="W17" t="s">
         <v>48</v>
@@ -2236,23 +2250,23 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Knarrevik</v>
+        <v>Foldnes</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F33" ca="1" si="17">C18*111.021</f>
-        <v>572.0939885250001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>6702.1249427430002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2279,7 +2293,7 @@
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="W18" t="s">
         <v>49</v>
@@ -2297,23 +2311,23 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Knappskog</v>
+        <v>Arefjord</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1424630000000002</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.358854999999998</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>561.31429350899998</v>
+        <v>570.92138472300007</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.7674984380001</v>
+        <v>6701.1004409549996</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2340,7 +2354,7 @@
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -2371,23 +2385,23 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Hjelteryggen</v>
+        <v>Knappskog</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1544819999999998</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.381360999999998</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>572.25574612200001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.5990795810003</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2414,7 +2428,7 @@
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -2447,23 +2461,23 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Bildøyna</v>
+        <v>Vågo</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1245659999999997</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.388821</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>566.88266278499998</v>
+        <v>568.93444188599995</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>6700.5708707849999</v>
+        <v>6704.4272962410005</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2490,7 +2504,7 @@
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -2523,50 +2537,50 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Kolltveit</v>
+        <v>Hjelteryggen</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1544819999999998</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.381360999999998</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>564.85408707299996</v>
+        <v>572.25574612200001</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>6700.3641496830005</v>
+        <v>6703.5990795810003</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -2600,23 +2614,23 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Skogsvåg</v>
+        <v>Blomøy</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0971859999999998</v>
+        <v>4.8927480000000001</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.25994</v>
+        <v>60.538108000000001</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>565.89468690599995</v>
+        <v>543.19777570799999</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>6690.1187987399999</v>
+        <v>6721.0012882680003</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2643,7 +2657,7 @@
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -2677,23 +2691,23 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Kleppe</v>
+        <v>Hellesøy</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1359649999999997</v>
+        <v>4.7908670000000004</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.187809999999999</v>
+        <v>60.661020999999998</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>570.19997026499993</v>
+        <v>531.88684520700008</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>6682.1108540100004</v>
+        <v>6734.6472124410002</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2720,7 +2734,7 @@
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>142</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -2754,50 +2768,50 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Arefjord</v>
+        <v>Vorland</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1424630000000002</v>
+        <v>5.0677450000000004</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.358854999999998</v>
+        <v>60.227445000000003</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>570.92138472300007</v>
+        <v>562.62611764500002</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.1004409549996</v>
+        <v>6686.5111713450005</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -2833,23 +2847,23 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Hjelteryggen</v>
+        <v>Blomøy</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1544819999999998</v>
+        <v>4.8927480000000001</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.381360999999998</v>
+        <v>60.538108000000001</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>572.25574612200001</v>
+        <v>543.19777570799999</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.5990795810003</v>
+        <v>6721.0012882680003</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2876,7 +2890,7 @@
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -2912,50 +2926,50 @@
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Hjelteryggen</v>
+        <v>Solsvik</v>
       </c>
       <c r="C27" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1544819999999998</v>
+        <v>4.9664089999999996</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.381360999999998</v>
+        <v>60.431001999999999</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>572.25574612200001</v>
+        <v>551.37569358899998</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.5990795810003</v>
+        <v>6709.1102730419998</v>
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H27" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I27" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J27" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K27" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M27" s="3" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">_xlfn.XLOOKUP(B27,$R$20:$R$47,_xlfn.XLOOKUP(G27,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="R27" s="58" t="s">
         <v>39</v>
@@ -2982,50 +2996,50 @@
       </c>
       <c r="B28" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Bildøyna</v>
+        <v>Tofterøy</v>
       </c>
       <c r="C28" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0525099999999998</v>
       </c>
       <c r="D28" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.185890000000001</v>
       </c>
       <c r="E28" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>566.88266278499998</v>
+        <v>560.93471270999999</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>6700.5708707849999</v>
+        <v>6681.8976936899999</v>
       </c>
       <c r="G28" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H28" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I28" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J28" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K28" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M28" s="3" cm="1">
         <f t="array" aca="1" ref="M28" ca="1">_xlfn.XLOOKUP(B28,$R$20:$R$47,_xlfn.XLOOKUP(G28,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="R28" s="58" t="s">
         <v>47</v>
@@ -3052,50 +3066,50 @@
       </c>
       <c r="B29" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ebbesvika</v>
+        <v>Vorland</v>
       </c>
       <c r="C29" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1401279999999998</v>
+        <v>5.0677450000000004</v>
       </c>
       <c r="D29" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.336067999999997</v>
+        <v>60.227445000000003</v>
       </c>
       <c r="E29" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>570.662150688</v>
+        <v>562.62611764500002</v>
       </c>
       <c r="F29" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>6698.5706054279999</v>
+        <v>6686.5111713450005</v>
       </c>
       <c r="G29" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H29" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I29" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J29" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K29" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M29" s="3" cm="1">
         <f t="array" aca="1" ref="M29" ca="1">_xlfn.XLOOKUP(B29,$R$20:$R$47,_xlfn.XLOOKUP(G29,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="R29" s="58" t="s">
         <v>48</v>
@@ -3122,23 +3136,23 @@
       </c>
       <c r="B30" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Skogsvåg</v>
+        <v>Vorland</v>
       </c>
       <c r="C30" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0971859999999998</v>
+        <v>5.0677450000000004</v>
       </c>
       <c r="D30" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.25994</v>
+        <v>60.227445000000003</v>
       </c>
       <c r="E30" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>565.89468690599995</v>
+        <v>562.62611764500002</v>
       </c>
       <c r="F30" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>6690.1187987399999</v>
+        <v>6686.5111713450005</v>
       </c>
       <c r="G30" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3165,7 +3179,7 @@
       </c>
       <c r="M30" s="3" cm="1">
         <f t="array" aca="1" ref="M30" ca="1">_xlfn.XLOOKUP(B30,$R$20:$R$47,_xlfn.XLOOKUP(G30,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="R30" s="58" t="s">
         <v>34</v>
@@ -3192,23 +3206,23 @@
       </c>
       <c r="B31" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Landro</v>
+        <v>Telavåg</v>
       </c>
       <c r="C31" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9672090000000004</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D31" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.423364999999997</v>
+        <v>60.261564</v>
       </c>
       <c r="E31" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>551.464510389</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F31" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>6708.2624056649993</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G31" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3235,7 +3249,7 @@
       </c>
       <c r="M31" s="3" cm="1">
         <f t="array" aca="1" ref="M31" ca="1">_xlfn.XLOOKUP(B31,$R$20:$R$47,_xlfn.XLOOKUP(G31,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="R31" s="58" t="s">
         <v>37</v>
@@ -3262,50 +3276,50 @@
       </c>
       <c r="B32" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Brattholmen</v>
+        <v>Tofterøy</v>
       </c>
       <c r="C32" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.0525099999999998</v>
       </c>
       <c r="D32" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.185890000000001</v>
       </c>
       <c r="E32" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>572.01061175400002</v>
+        <v>560.93471270999999</v>
       </c>
       <c r="F32" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>6700.629822936</v>
+        <v>6681.8976936899999</v>
       </c>
       <c r="G32" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H32" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I32" s="63">
         <f t="shared" ref="I32:I42" ca="1" si="22">_xlfn.XLOOKUP(G32,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J32" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K32" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M32" s="3" cm="1">
         <f t="array" aca="1" ref="M32" ca="1">_xlfn.XLOOKUP(B32,$R$20:$R$47,_xlfn.XLOOKUP(G32,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="R32" s="58" t="s">
         <v>49</v>
@@ -3332,50 +3346,50 @@
       </c>
       <c r="B33" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Skogsvåg</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C33" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0971859999999998</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D33" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.25994</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E33" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>565.89468690599995</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F33" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>6690.1187987399999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G33" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H33" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I33" s="63">
         <f t="shared" ca="1" si="22"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J33" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K33" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M33" s="3" cm="1">
         <f t="array" aca="1" ref="M33" ca="1">_xlfn.XLOOKUP(B33,$R$20:$R$47,_xlfn.XLOOKUP(G33,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="R33" s="58" t="s">
         <v>35</v>
@@ -3402,50 +3416,50 @@
       </c>
       <c r="B34" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Kleppe</v>
+        <v>Vorland</v>
       </c>
       <c r="C34" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1359649999999997</v>
+        <v>5.0677450000000004</v>
       </c>
       <c r="D34" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.187809999999999</v>
+        <v>60.227445000000003</v>
       </c>
       <c r="E34" s="5">
         <f t="shared" ref="E34:E42" ca="1" si="23">C34*111.021</f>
-        <v>570.19997026499993</v>
+        <v>562.62611764500002</v>
       </c>
       <c r="F34" s="5">
         <f t="shared" ref="F34:F42" ca="1" si="24">D34*111.021</f>
-        <v>6682.1108540100004</v>
+        <v>6686.5111713450005</v>
       </c>
       <c r="G34" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H34" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I34" s="63">
         <f t="shared" ca="1" si="22"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J34" s="8">
         <f t="shared" ref="J34:J42" ca="1" si="25">H34*111.021</f>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K34" s="8">
         <f t="shared" ref="K34:K42" ca="1" si="26">I34*111.021</f>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M34" s="3" cm="1">
         <f t="array" aca="1" ref="M34" ca="1">_xlfn.XLOOKUP(B34,$R$20:$R$47,_xlfn.XLOOKUP(G34,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="R34" s="58" t="s">
         <v>50</v>
@@ -3465,56 +3479,19 @@
       </c>
     </row>
     <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Bildøyna</v>
-      </c>
-      <c r="C35" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
-      </c>
-      <c r="D35" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
-      </c>
-      <c r="E35" s="5">
-        <f t="shared" ca="1" si="23"/>
-        <v>566.88266278499998</v>
-      </c>
-      <c r="F35" s="5">
-        <f t="shared" ca="1" si="24"/>
-        <v>6700.5708707849999</v>
-      </c>
-      <c r="G35" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Årstad</v>
-      </c>
-      <c r="H35" s="6">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.3523550000000002</v>
-      </c>
-      <c r="I35" s="63">
-        <f t="shared" ca="1" si="22"/>
-        <v>60.363500999999999</v>
-      </c>
-      <c r="J35" s="8">
-        <f t="shared" ca="1" si="25"/>
-        <v>594.22380445500005</v>
-      </c>
-      <c r="K35" s="8">
-        <f t="shared" ca="1" si="26"/>
-        <v>6701.6162445210002</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M35" s="3" cm="1">
-        <f t="array" aca="1" ref="M35" ca="1">_xlfn.XLOOKUP(B35,$R$20:$R$47,_xlfn.XLOOKUP(G35,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
-      </c>
+      <c r="A35" s="2"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="3"/>
       <c r="R35" s="58" t="s">
         <v>51</v>
       </c>
@@ -3535,56 +3512,19 @@
       </c>
     </row>
     <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Kolltveit</v>
-      </c>
-      <c r="C36" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
-      </c>
-      <c r="D36" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
-      </c>
-      <c r="E36" s="5">
-        <f t="shared" ca="1" si="23"/>
-        <v>564.85408707299996</v>
-      </c>
-      <c r="F36" s="5">
-        <f t="shared" ca="1" si="24"/>
-        <v>6700.3641496830005</v>
-      </c>
-      <c r="G36" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Årstad</v>
-      </c>
-      <c r="H36" s="6">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.3523550000000002</v>
-      </c>
-      <c r="I36" s="63">
-        <f t="shared" ca="1" si="22"/>
-        <v>60.363500999999999</v>
-      </c>
-      <c r="J36" s="8">
-        <f t="shared" ca="1" si="25"/>
-        <v>594.22380445500005</v>
-      </c>
-      <c r="K36" s="8">
-        <f t="shared" ca="1" si="26"/>
-        <v>6701.6162445210002</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M36" s="3" cm="1">
-        <f t="array" aca="1" ref="M36" ca="1">_xlfn.XLOOKUP(B36,$R$20:$R$47,_xlfn.XLOOKUP(G36,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
-      </c>
+      <c r="A36" s="2"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="63"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="3"/>
       <c r="R36" s="58" t="s">
         <v>52</v>
       </c>
@@ -3605,56 +3545,19 @@
       </c>
     </row>
     <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B37" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Telavåg</v>
-      </c>
-      <c r="C37" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
-      </c>
-      <c r="D37" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
-      </c>
-      <c r="E37" s="5">
-        <f t="shared" ca="1" si="23"/>
-        <v>553.10906446199999</v>
-      </c>
-      <c r="F37" s="5">
-        <f t="shared" ca="1" si="24"/>
-        <v>6690.2990968439999</v>
-      </c>
-      <c r="G37" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Årstad</v>
-      </c>
-      <c r="H37" s="6">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.3523550000000002</v>
-      </c>
-      <c r="I37" s="63">
-        <f t="shared" ca="1" si="22"/>
-        <v>60.363500999999999</v>
-      </c>
-      <c r="J37" s="8">
-        <f t="shared" ca="1" si="25"/>
-        <v>594.22380445500005</v>
-      </c>
-      <c r="K37" s="8">
-        <f t="shared" ca="1" si="26"/>
-        <v>6701.6162445210002</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M37" s="3" cm="1">
-        <f t="array" aca="1" ref="M37" ca="1">_xlfn.XLOOKUP(B37,$R$20:$R$47,_xlfn.XLOOKUP(G37,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
-      </c>
+      <c r="A37" s="2"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="63"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="3"/>
       <c r="R37" s="58" t="s">
         <v>53</v>
       </c>
@@ -3675,56 +3578,19 @@
       </c>
     </row>
     <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B38" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Hammersland</v>
-      </c>
-      <c r="C38" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.0687990000000003</v>
-      </c>
-      <c r="D38" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.259569999999997</v>
-      </c>
-      <c r="E38" s="5">
-        <f t="shared" ca="1" si="23"/>
-        <v>562.743133779</v>
-      </c>
-      <c r="F38" s="5">
-        <f t="shared" ca="1" si="24"/>
-        <v>6690.07772097</v>
-      </c>
-      <c r="G38" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Årstad</v>
-      </c>
-      <c r="H38" s="6">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.3523550000000002</v>
-      </c>
-      <c r="I38" s="63">
-        <f t="shared" ca="1" si="22"/>
-        <v>60.363500999999999</v>
-      </c>
-      <c r="J38" s="8">
-        <f t="shared" ca="1" si="25"/>
-        <v>594.22380445500005</v>
-      </c>
-      <c r="K38" s="8">
-        <f t="shared" ca="1" si="26"/>
-        <v>6701.6162445210002</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M38" s="3" cm="1">
-        <f t="array" aca="1" ref="M38" ca="1">_xlfn.XLOOKUP(B38,$R$20:$R$47,_xlfn.XLOOKUP(G38,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>16</v>
-      </c>
+      <c r="A38" s="2"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="63"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="3"/>
       <c r="R38" s="58" t="s">
         <v>54</v>
       </c>
@@ -3745,56 +3611,19 @@
       </c>
     </row>
     <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B39" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Straume</v>
-      </c>
-      <c r="C39" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
-      </c>
-      <c r="D39" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
-      </c>
-      <c r="E39" s="5">
-        <f t="shared" ca="1" si="23"/>
-        <v>568.57551099299997</v>
-      </c>
-      <c r="F39" s="5">
-        <f t="shared" ca="1" si="24"/>
-        <v>6700.8457587809999</v>
-      </c>
-      <c r="G39" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Laksevåg</v>
-      </c>
-      <c r="H39" s="6">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.2647930000000001</v>
-      </c>
-      <c r="I39" s="63">
-        <f t="shared" ca="1" si="22"/>
-        <v>60.379098999999997</v>
-      </c>
-      <c r="J39" s="8">
-        <f t="shared" ca="1" si="25"/>
-        <v>584.50258365299999</v>
-      </c>
-      <c r="K39" s="8">
-        <f t="shared" ca="1" si="26"/>
-        <v>6703.3479500789999</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M39" s="3" cm="1">
-        <f t="array" aca="1" ref="M39" ca="1">_xlfn.XLOOKUP(B39,$R$20:$R$47,_xlfn.XLOOKUP(G39,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
-      </c>
+      <c r="A39" s="2"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="63"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="3"/>
       <c r="R39" s="58" t="s">
         <v>55</v>
       </c>
@@ -3815,124 +3644,52 @@
       </c>
     </row>
     <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B40" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Straume</v>
-      </c>
-      <c r="C40" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
-      </c>
-      <c r="D40" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
-      </c>
-      <c r="E40" s="5">
-        <f t="shared" ca="1" si="23"/>
-        <v>568.57551099299997</v>
-      </c>
-      <c r="F40" s="5">
-        <f t="shared" ca="1" si="24"/>
-        <v>6700.8457587809999</v>
-      </c>
-      <c r="G40" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Årstad</v>
-      </c>
-      <c r="H40" s="6">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.3523550000000002</v>
-      </c>
-      <c r="I40" s="63">
-        <f t="shared" ca="1" si="22"/>
-        <v>60.363500999999999</v>
-      </c>
-      <c r="J40" s="8">
-        <f t="shared" ca="1" si="25"/>
-        <v>594.22380445500005</v>
-      </c>
-      <c r="K40" s="8">
-        <f t="shared" ca="1" si="26"/>
-        <v>6701.6162445210002</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M40" s="3" cm="1">
-        <f t="array" aca="1" ref="M40" ca="1">_xlfn.XLOOKUP(B40,$R$20:$R$47,_xlfn.XLOOKUP(G40,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
-      </c>
+      <c r="A40" s="2"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="3"/>
       <c r="R40" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="S40" s="41"/>
+      <c r="S40" s="41">
+        <v>30</v>
+      </c>
       <c r="T40" s="42">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="U40" s="43">
         <f t="shared" si="20"/>
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="V40" s="44">
         <f t="shared" si="21"/>
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B41" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Bildøyna</v>
-      </c>
-      <c r="C41" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
-      </c>
-      <c r="D41" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
-      </c>
-      <c r="E41" s="5">
-        <f t="shared" ca="1" si="23"/>
-        <v>566.88266278499998</v>
-      </c>
-      <c r="F41" s="5">
-        <f t="shared" ca="1" si="24"/>
-        <v>6700.5708707849999</v>
-      </c>
-      <c r="G41" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Laksevåg</v>
-      </c>
-      <c r="H41" s="6">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.2647930000000001</v>
-      </c>
-      <c r="I41" s="63">
-        <f t="shared" ca="1" si="22"/>
-        <v>60.379098999999997</v>
-      </c>
-      <c r="J41" s="8">
-        <f t="shared" ca="1" si="25"/>
-        <v>584.50258365299999</v>
-      </c>
-      <c r="K41" s="8">
-        <f t="shared" ca="1" si="26"/>
-        <v>6703.3479500789999</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M41" s="3" cm="1">
-        <f t="array" aca="1" ref="M41" ca="1">_xlfn.XLOOKUP(B41,$R$20:$R$47,_xlfn.XLOOKUP(G41,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
-      </c>
+      <c r="A41" s="2"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="63"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="3"/>
       <c r="R41" s="58" t="s">
         <v>32</v>
       </c>
@@ -3953,56 +3710,19 @@
       </c>
     </row>
     <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B42" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Kårtveit</v>
-      </c>
-      <c r="C42" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
-      </c>
-      <c r="D42" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
-      </c>
-      <c r="E42" s="5">
-        <f t="shared" ca="1" si="23"/>
-        <v>554.37814551299994</v>
-      </c>
-      <c r="F42" s="5">
-        <f t="shared" ca="1" si="24"/>
-        <v>6704.4084226710002</v>
-      </c>
-      <c r="G42" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Årstad</v>
-      </c>
-      <c r="H42" s="6">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.3523550000000002</v>
-      </c>
-      <c r="I42" s="63">
-        <f t="shared" ca="1" si="22"/>
-        <v>60.363500999999999</v>
-      </c>
-      <c r="J42" s="8">
-        <f t="shared" ca="1" si="25"/>
-        <v>594.22380445500005</v>
-      </c>
-      <c r="K42" s="8">
-        <f t="shared" ca="1" si="26"/>
-        <v>6701.6162445210002</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M42" s="3" cm="1">
-        <f t="array" aca="1" ref="M42" ca="1">_xlfn.XLOOKUP(B42,$R$20:$R$47,_xlfn.XLOOKUP(G42,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
-      </c>
+      <c r="A42" s="2"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="63"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="3"/>
       <c r="R42" s="58" t="s">
         <v>57</v>
       </c>
@@ -5260,50 +4980,50 @@
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:B9" ca="1" si="0">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Knarrevik</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C2" s="3">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1530250000000004</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D2" s="4">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.368082999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E2" s="5">
         <f t="shared" ref="E2:F17" ca="1" si="1">C2*111.021</f>
-        <v>572.0939885250001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F2" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6702.1249427430002</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G2" s="3" t="str">
         <f t="shared" ref="G2:G8" ca="1" si="2">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H2" s="6">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I2" s="63">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J2" s="8">
         <f t="shared" ref="J2:K17" ca="1" si="3">H2*111.021</f>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K2" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="3" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">_xlfn.XLOOKUP(B2,$R$20:$R$47,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="N2" s="2">
         <v>4</v>
@@ -5334,50 +5054,50 @@
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Bildøyna</v>
+        <v>Straume</v>
       </c>
       <c r="C3" s="3">
         <f ca="1">_xlfn.XLOOKUP(B3,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1060850000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3" ca="1" si="4">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354084999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.88266278499998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.5708707849999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H3" s="6">
         <f t="shared" ref="H3" ca="1" si="5">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I3" s="63">
         <f ca="1">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J3" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K3" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="3" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="N3" s="2">
         <v>4</v>
@@ -5410,50 +5130,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Brattholmen</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C4" s="3">
         <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1522740000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D4" s="4">
         <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.01061175400002</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.629822936</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H4" s="6">
         <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I4" s="63">
         <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N4" s="2">
         <v>4</v>
@@ -5483,23 +5203,23 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Kolltveit</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C6" ca="1" si="6">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0878129999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ref="D5:D6" ca="1" si="7">_xlfn.XLOOKUP(B5,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>564.85408707299996</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.3641496830005</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -5526,7 +5246,7 @@
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="N5" s="2">
         <v>4</v>
@@ -5556,50 +5276,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Bildøyna</v>
+        <v>Knappskog</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1060850000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.354084999999998</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.88266278499998</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.5708707849999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="N6" s="2">
         <v>4</v>
@@ -5629,50 +5349,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Kolltveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C7" s="3">
         <f ca="1">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0878129999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D7" s="4">
         <f ca="1">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.261564</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>564.85408707299996</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.3641496830005</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H7" s="6">
         <f ca="1">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I7" s="63">
         <f ca="1">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="N7" s="2">
         <v>4</v>
@@ -5693,50 +5413,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Kårtveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ref="C8:C31" ca="1" si="10">_xlfn.XLOOKUP(B8,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9934529999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ref="D8:D27" ca="1" si="11">_xlfn.XLOOKUP(B8,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>554.37814551299994</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.4084226710002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ref="H8:H31" ca="1" si="12">_xlfn.XLOOKUP(G8,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ref="I8:I27" ca="1" si="13">_xlfn.XLOOKUP(G8,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="N8" s="2">
         <v>4</v>
@@ -5757,50 +5477,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Brattholmen</v>
+        <v>Foldnes</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1522740000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354616</v>
+        <v>60.375988</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.01061175400002</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.629822936</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ref="G9:G31" ca="1" si="14">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -5818,50 +5538,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ref="B10:B31" ca="1" si="15">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Telavåg</v>
+        <v>Spjeld</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9820219999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.261564</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>553.10906446199999</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6690.2990968439999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -5879,50 +5599,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Brattholmen</v>
+        <v>Straume</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1522740000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354616</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.01061175400002</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.629822936</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -5961,30 +5681,30 @@
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -6005,43 +5725,43 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Straume</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1213329999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.356560999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>568.57551099299997</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.8457587809999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
@@ -6057,23 +5777,23 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kårtveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9934529999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.388651000000003</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>554.37814551299994</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.4084226710002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -6100,7 +5820,7 @@
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -6109,50 +5829,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knappskog</v>
+        <v>Foldnes</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0559289999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.382877999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>561.31429350899998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.7674984380001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -6161,23 +5881,23 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knappskog</v>
+        <v>Spjeld</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0559289999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.382877999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>561.31429350899998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.7674984380001</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -6213,50 +5933,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bildøyna</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1060850000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354084999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.88266278499998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.5708707849999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -6265,50 +5985,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knappskog</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0559289999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.382877999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F31" ca="1" si="16">C18*111.021</f>
-        <v>561.31429350899998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.7674984380001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:K31" ca="1" si="17">H18*111.021</f>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -6317,50 +6037,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Brattholmen</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1522740000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354616</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.01061175400002</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.629822936</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -6382,43 +6102,43 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kolltveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0878129999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.352223000000002</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>564.85408707299996</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.3641496830005</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
@@ -6449,50 +6169,50 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knappskog</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0559289999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.382877999999998</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>561.31429350899998</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.7674984380001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I21" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -6516,23 +6236,23 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kårtveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9934529999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.388651000000003</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>554.37814551299994</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.4084226710002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -6559,7 +6279,7 @@
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -6589,50 +6309,50 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kårtveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9934529999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.388651000000003</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>554.37814551299994</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.4084226710002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -6682,30 +6402,30 @@
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -6736,50 +6456,50 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kårtveit</v>
+        <v>Straume</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9934529999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.388651000000003</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>554.37814551299994</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.4084226710002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -6806,50 +6526,50 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kolltveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0878129999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.352223000000002</v>
+        <v>60.375988</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>564.85408707299996</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.3641496830005</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -6876,50 +6596,50 @@
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bildøyna</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C27" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1060850000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354084999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.88266278499998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.5708707849999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H27" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I27" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J27" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K27" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M27" s="3" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">_xlfn.XLOOKUP(B27,$R$20:$R$47,_xlfn.XLOOKUP(G27,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="R27" s="58" t="s">
         <v>39</v>
@@ -6966,30 +6686,30 @@
       </c>
       <c r="G28" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H28" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I28" s="63">
         <f t="shared" ref="I28:I31" ca="1" si="22">_xlfn.XLOOKUP(G28,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J28" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K28" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M28" s="3" cm="1">
         <f t="array" aca="1" ref="M28" ca="1">_xlfn.XLOOKUP(B28,$R$20:$R$47,_xlfn.XLOOKUP(G28,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="R28" s="58" t="s">
         <v>47</v>
@@ -7016,23 +6736,23 @@
       </c>
       <c r="B29" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Brattholmen</v>
+        <v>Straume</v>
       </c>
       <c r="C29" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1522740000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D29" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>60.354616</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E29" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.01061175400002</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F29" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.629822936</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G29" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -7059,7 +6779,7 @@
       </c>
       <c r="M29" s="3" cm="1">
         <f t="array" aca="1" ref="M29" ca="1">_xlfn.XLOOKUP(B29,$R$20:$R$47,_xlfn.XLOOKUP(G29,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="R29" s="58" t="s">
         <v>48</v>
@@ -7086,50 +6806,50 @@
       </c>
       <c r="B30" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knarrevik</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C30" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1530250000000004</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D30" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>60.368082999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E30" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.0939885250001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F30" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6702.1249427430002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G30" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H30" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I30" s="63">
         <f t="shared" ca="1" si="22"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J30" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K30" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M30" s="3" cm="1">
         <f t="array" aca="1" ref="M30" ca="1">_xlfn.XLOOKUP(B30,$R$20:$R$47,_xlfn.XLOOKUP(G30,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="R30" s="58" t="s">
         <v>34</v>
@@ -7156,50 +6876,50 @@
       </c>
       <c r="B31" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Foldnes</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C31" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1065680000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D31" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>60.375988</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E31" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.93628592800007</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F31" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.0025637480003</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G31" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H31" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I31" s="63">
         <f t="shared" ca="1" si="22"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J31" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K31" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M31" s="3" cm="1">
         <f t="array" aca="1" ref="M31" ca="1">_xlfn.XLOOKUP(B31,$R$20:$R$47,_xlfn.XLOOKUP(G31,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R31" s="58" t="s">
         <v>37</v>
@@ -8206,50 +7926,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ref="B9:B27" ca="1" si="14">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Spjeld</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ref="G9:G27" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -8267,50 +7987,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Spjeld</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -8328,50 +8048,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knappskog</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -8390,50 +8110,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Straume</v>
+        <v>Telavåg</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.261564</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -8454,50 +8174,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kårtveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8506,50 +8226,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Spjeld</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -8558,50 +8278,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kolltveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.261564</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -8610,50 +8330,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kårtveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.261564</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -8662,43 +8382,43 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knappskog</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
@@ -8714,23 +8434,23 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kolltveit</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F27" ca="1" si="16">C18*111.021</f>
-        <v>564.85408707299996</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.3641496830005</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -8757,7 +8477,7 @@
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -8766,50 +8486,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Telavåg</v>
+        <v>Knappskog</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>553.10906446199999</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6690.2990968439999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -8831,50 +8551,50 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knappskog</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>561.31429350899998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.7674984380001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -8898,50 +8618,50 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kolltveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.354616</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>564.85408707299996</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.3641496830005</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I21" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -8965,23 +8685,23 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knarrevik</v>
+        <v>Foldnes</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.0939885250001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6702.1249427430002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -9008,7 +8728,7 @@
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -9038,50 +8758,50 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Brattholmen</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.01061175400002</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.629822936</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -9111,50 +8831,50 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knappskog</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>561.31429350899998</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.7674984380001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -9185,50 +8905,50 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Straume</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>568.57551099299997</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.8457587809999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -9255,50 +8975,50 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knappskog</v>
+        <v>Spjeld</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>561.31429350899998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.7674984380001</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -9325,23 +9045,23 @@
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kolltveit</v>
+        <v>Straume</v>
       </c>
       <c r="C27" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" ref="D27" ca="1" si="21">_xlfn.XLOOKUP(B27,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>564.85408707299996</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.3641496830005</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -9368,7 +9088,7 @@
       </c>
       <c r="M27" s="3" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">_xlfn.XLOOKUP(B27,$R$20:$R$47,_xlfn.XLOOKUP(G27,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="R27" s="58" t="s">
         <v>39</v>
@@ -10358,50 +10078,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B26" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Telavåg</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.354616</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G26" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -10419,50 +10139,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -10500,30 +10220,30 @@
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -10541,50 +10261,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -10602,50 +10322,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -10664,23 +10384,23 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -10707,7 +10427,7 @@
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -10728,50 +10448,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.375988</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10780,43 +10500,43 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
@@ -10832,23 +10552,23 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -10875,7 +10595,7 @@
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -10884,43 +10604,43 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Knappskog</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
@@ -10936,50 +10656,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -10988,50 +10708,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F24" ca="1" si="10">C18*111.021</f>
-        <v>559.50231976800001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.5962702030001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:K24" ca="1" si="11">H18*111.021</f>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -11105,50 +10825,50 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ref="D20:D26" ca="1" si="12">_xlfn.XLOOKUP(B20,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354084999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>566.88266278499998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.5708707849999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ref="I20:I26" ca="1" si="13">_xlfn.XLOOKUP(G20,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -11172,50 +10892,50 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Knappskog</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.261564</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>553.10906446199999</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6690.2990968439999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I21" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -11239,50 +10959,50 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Straume</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.368082999999999</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>572.0939885250001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6702.1249427430002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -11312,23 +11032,23 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Straume</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.375988</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>566.93628592800007</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.0025637480003</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -11355,7 +11075,7 @@
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -11385,50 +11105,50 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Knappskog</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.390343000000001</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>559.50231976800001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.5962702030001</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -11459,50 +11179,50 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Straume</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.368082999999999</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ref="E25:E26" ca="1" si="14">C25*111.021</f>
-        <v>572.0939885250001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ref="F25:F26" ca="1" si="15">D25*111.021</f>
-        <v>6702.1249427430002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ref="J25:J26" ca="1" si="16">H25*111.021</f>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ref="K25:K26" ca="1" si="17">I25*111.021</f>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -11549,30 +11269,30 @@
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -12590,50 +12310,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B19" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kolltveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.354616</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G19" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -12671,30 +12391,30 @@
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -12712,50 +12432,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -12773,50 +12493,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Straume</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -12834,23 +12554,23 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -12877,7 +12597,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -12916,30 +12636,30 @@
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -12960,23 +12680,23 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -13003,7 +12723,7 @@
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13012,23 +12732,23 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Straume</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -13055,7 +12775,7 @@
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -13064,23 +12784,23 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.354616</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -13107,7 +12827,7 @@
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -13116,50 +12836,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Straume</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -13168,50 +12888,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ref="D17:D19" ca="1" si="10">_xlfn.XLOOKUP(B17,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.390343000000001</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ref="E17:E19" ca="1" si="11">C17*111.021</f>
-        <v>559.50231976800001</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ref="F17:F19" ca="1" si="12">D17*111.021</f>
-        <v>6704.5962702030001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ref="I17:I19" ca="1" si="13">_xlfn.XLOOKUP(G17,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ref="J17:J19" ca="1" si="14">H17*111.021</f>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ref="K17:K19" ca="1" si="15">I17*111.021</f>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -13220,23 +12940,23 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.390343000000001</v>
+        <v>60.354616</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>559.50231976800001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6704.5962702030001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -13263,7 +12983,7 @@
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -13272,50 +12992,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Telavåg</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.354084999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>566.88266278499998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6700.5708707849999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -14528,50 +14248,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B16" ca="1" si="12">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Spjeld</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ref="C7:C16" ca="1" si="13">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0396080000000003</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D13" ca="1" si="14">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.390343000000001</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G16" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ref="H7:H16" ca="1" si="16">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I13" ca="1" si="17">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -14589,50 +14309,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Straume</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1213329999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.356560999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -14650,50 +14370,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Bildøyna</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1060850000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.354084999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -14711,50 +14431,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Telavåg</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9820219999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.261564</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -14772,50 +14492,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Straume</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1213329999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.356560999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -14834,23 +14554,23 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Bildøyna</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1060850000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.354084999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -14877,7 +14597,7 @@
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -14898,50 +14618,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Telavåg</v>
+        <v>Knappskog</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9820219999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.261564</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14950,23 +14670,23 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Telavåg</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9820219999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ref="D14:D16" ca="1" si="18">_xlfn.XLOOKUP(B14,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.261564</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ref="E14:E16" ca="1" si="19">C14*111.021</f>
-        <v>553.10906446199999</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ref="F14:F16" ca="1" si="20">D14*111.021</f>
-        <v>6690.2990968439999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -14993,7 +14713,7 @@
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -15002,50 +14722,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Bildøyna</v>
+        <v>Knappskog</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1060850000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.354084999999998</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>566.88266278499998</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6700.5708707849999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="21"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -15054,50 +14774,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Bildøyna</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1060850000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.354084999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>566.88266278499998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6700.5708707849999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="21"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
@@ -16198,23 +15918,23 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ref="B5:B13" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Knappskog</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C13" ca="1" si="9">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0559289999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.382877999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ref="G5:G13" ca="1" si="10">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -16241,7 +15961,7 @@
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -16268,50 +15988,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0559289999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -16338,50 +16058,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9934529999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="12">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <v>60.354616</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -16399,50 +16119,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Telavåg</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0396080000000003</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.390343000000001</v>
+        <v>60.261564</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -16460,50 +16180,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Straume</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9820219999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.261564</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -16521,50 +16241,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0396080000000003</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.390343000000001</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -16582,23 +16302,23 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1530250000000004</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.368082999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -16625,7 +16345,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -16644,23 +16364,23 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0559289999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ref="D12:D13" ca="1" si="13">_xlfn.XLOOKUP(B12,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ref="E12:E13" ca="1" si="14">C12*111.021</f>
-        <v>561.31429350899998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ref="F12:F13" ca="1" si="15">D12*111.021</f>
-        <v>6703.7674984380001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -16687,7 +16407,7 @@
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -16708,50 +16428,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0559289999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>60.382877999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>561.31429350899998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6703.7674984380001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="16"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17801,50 +17521,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B11" ca="1" si="4">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kolltveit</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C11" ca="1" si="5">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0878129999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.352223000000002</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G11" ca="1" si="6">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="7">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -17871,23 +17591,23 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Foldnes</v>
+        <v>Telavåg</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1065680000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.375988</v>
+        <v>60.261564</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -17914,7 +17634,7 @@
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -17941,50 +17661,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Foldnes</v>
+        <v>Straume</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1065680000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -18011,23 +17731,23 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Kolltveit</v>
+        <v>Straume</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0878129999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="8">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ref="E7:E11" ca="1" si="9">C7*111.021</f>
-        <v>564.85408707299996</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ref="F7:F11" ca="1" si="10">D7*111.021</f>
-        <v>6700.3641496830005</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -18054,7 +17774,7 @@
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -18072,50 +17792,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Kårtveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4.9934529999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.388651000000003</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>554.37814551299994</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.4084226710002</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>88</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -18133,23 +17853,23 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Bildøyna</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1060850000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.354084999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>566.88266278499998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.5708707849999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -18176,7 +17896,7 @@
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -18194,50 +17914,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Spjeld</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0396080000000003</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.390343000000001</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>559.50231976800001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.5962702030001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>90</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -18255,50 +17975,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Foldnes</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1065680000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.375988</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>566.93628592800007</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.0025637480003</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>91</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -19383,43 +19103,43 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B6" ca="1" si="6">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Spjeld</v>
+        <v>Foldnes</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C6" ca="1" si="7">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0396080000000003</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.390343000000001</v>
+        <v>60.375988</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ref="E4:F4" ca="1" si="8">C4*111.021</f>
-        <v>559.50231976800001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>6704.5962702030001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G6" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="10">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ref="J4:K4" ca="1" si="11">H4*111.021</f>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
@@ -19453,23 +19173,23 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Brattholmen</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1522740000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.354616</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:F5" ca="1" si="12">C5*111.021</f>
-        <v>572.01061175400002</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6700.629822936</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -19496,7 +19216,7 @@
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -19523,50 +19243,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Telavåg</v>
+        <v>Spjeld</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>4.9820219999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.261564</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ref="E6:F6" ca="1" si="14">C6*111.021</f>
-        <v>553.10906446199999</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>6690.2990968439999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ref="J6:K6" ca="1" si="15">H6*111.021</f>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
